--- a/teaching/traditional_assets/database/data/chile/chile_furn_home_furnishings.xlsx
+++ b/teaching/traditional_assets/database/data/chile/chile_furn_home_furnishings.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="snse_cic" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,118 +593,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0498</v>
+        <v>-0.03365</v>
+      </c>
+      <c r="E2">
+        <v>0.644</v>
       </c>
       <c r="G2">
-        <v>0.02675404780262144</v>
+        <v>0.06027667984189724</v>
       </c>
       <c r="H2">
-        <v>0.02675404780262144</v>
+        <v>0.06027667984189724</v>
       </c>
       <c r="I2">
-        <v>-0.06198920585967618</v>
+        <v>0.04584980237154151</v>
       </c>
       <c r="J2">
-        <v>-0.06198920585967618</v>
+        <v>0.04067664074384054</v>
       </c>
       <c r="K2">
-        <v>-35.34</v>
+        <v>1.22</v>
       </c>
       <c r="L2">
-        <v>-0.1362374710871242</v>
+        <v>0.01205533596837944</v>
       </c>
       <c r="M2">
-        <v>23.07</v>
+        <v>2.55</v>
       </c>
       <c r="N2">
-        <v>0.06180181628224705</v>
+        <v>0.06245407788390889</v>
       </c>
       <c r="O2">
-        <v>-0.6528013582342954</v>
+        <v>2.09016393442623</v>
       </c>
       <c r="P2">
-        <v>0.27</v>
+        <v>2.55</v>
       </c>
       <c r="Q2">
-        <v>0.0007232982399742829</v>
+        <v>0.06245407788390889</v>
       </c>
       <c r="R2">
-        <v>-0.007640067911714771</v>
+        <v>2.09016393442623</v>
       </c>
       <c r="S2">
-        <v>22.8</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.988296488946684</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>9.629</v>
+        <v>10.905</v>
       </c>
       <c r="V2">
-        <v>0.02579495834337914</v>
+        <v>0.2670830271858928</v>
       </c>
       <c r="W2">
-        <v>-0.1264214125692725</v>
+        <v>-0.06370833333333333</v>
       </c>
       <c r="X2">
-        <v>0.1874361345848815</v>
+        <v>0.1690070079053568</v>
       </c>
       <c r="Y2">
-        <v>-0.313857547154154</v>
+        <v>-0.2327153412386901</v>
       </c>
       <c r="Z2">
-        <v>1.551927345390584</v>
+        <v>1.005154895163933</v>
       </c>
       <c r="AA2">
-        <v>-0.08684549222901095</v>
+        <v>-0.01377330875649842</v>
       </c>
       <c r="AB2">
-        <v>0.0771404468538234</v>
+        <v>0.06602640587405159</v>
       </c>
       <c r="AC2">
-        <v>-0.1639859390828343</v>
+        <v>-0.07979971463055002</v>
       </c>
       <c r="AD2">
-        <v>17.2</v>
+        <v>45.3</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>17.2</v>
+        <v>45.3</v>
       </c>
       <c r="AG2">
-        <v>7.571</v>
+        <v>34.395</v>
       </c>
       <c r="AH2">
-        <v>0.04404722272017209</v>
+        <v>0.5259491466388018</v>
       </c>
       <c r="AI2">
-        <v>0.07484769364664927</v>
+        <v>0.4931417374265186</v>
       </c>
       <c r="AJ2">
-        <v>0.01987864338958308</v>
+        <v>0.4572283150548355</v>
       </c>
       <c r="AK2">
-        <v>0.03438690835759478</v>
+        <v>0.4248656661108022</v>
       </c>
       <c r="AL2">
-        <v>2.067</v>
+        <v>1.303</v>
       </c>
       <c r="AM2">
-        <v>1.017</v>
+        <v>1.277</v>
       </c>
       <c r="AN2">
-        <v>-6.54988575780655</v>
+        <v>5.249130938586326</v>
       </c>
       <c r="AO2">
-        <v>-7.779390420899853</v>
+        <v>3.561013046815043</v>
       </c>
       <c r="AP2">
-        <v>-2.883092155369383</v>
+        <v>3.985515643105445</v>
       </c>
       <c r="AQ2">
-        <v>-15.81120943952802</v>
+        <v>3.633516053249805</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +718,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Infodema S.A. (SNSE:INFODEMA)</t>
+          <t>Companias CIC S.A. (SNSE:CIC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,115 +727,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0112</v>
+        <v>0.0457</v>
+      </c>
+      <c r="E3">
+        <v>0.644</v>
       </c>
       <c r="G3">
-        <v>0.09389671361502347</v>
+        <v>0.08641975308641976</v>
       </c>
       <c r="H3">
-        <v>0.09389671361502347</v>
+        <v>0.08641975308641976</v>
       </c>
       <c r="I3">
-        <v>-0.09765258215962441</v>
+        <v>0.08327721661054995</v>
       </c>
       <c r="J3">
-        <v>-0.09765258215962441</v>
+        <v>0.06448513991017855</v>
       </c>
       <c r="K3">
-        <v>-2.24</v>
+        <v>5.01</v>
       </c>
       <c r="L3">
-        <v>-0.1051643192488263</v>
+        <v>0.05622895622895623</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>2.55</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.06657963446475196</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>2.55</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.06657963446475196</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>0.008999999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="V3">
-        <v>0.003765690376569037</v>
+        <v>0.2845953002610966</v>
       </c>
       <c r="W3">
-        <v>-0.1357575757575758</v>
+        <v>0.12525</v>
       </c>
       <c r="X3">
-        <v>0.2957805371326547</v>
+        <v>0.100999356400275</v>
       </c>
       <c r="Y3">
-        <v>-0.4315381128902305</v>
+        <v>0.02425064359972495</v>
       </c>
       <c r="Z3">
-        <v>0.7435333542779349</v>
+        <v>1.200808625336927</v>
       </c>
       <c r="AA3">
-        <v>-0.07260795196704715</v>
+        <v>0.07743431221020092</v>
       </c>
       <c r="AB3">
-        <v>0.07583977452754743</v>
+        <v>0.06565846649858247</v>
       </c>
       <c r="AC3">
-        <v>-0.1484477264945946</v>
+        <v>0.01177584571161845</v>
       </c>
       <c r="AD3">
-        <v>12</v>
+        <v>34.5</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>12</v>
+        <v>34.5</v>
       </c>
       <c r="AG3">
-        <v>11.991</v>
+        <v>23.6</v>
       </c>
       <c r="AH3">
-        <v>0.8339124391938846</v>
+        <v>0.4739010989010989</v>
       </c>
       <c r="AI3">
-        <v>0.4858299595141701</v>
+        <v>0.4719562243502052</v>
       </c>
       <c r="AJ3">
-        <v>0.8338084973228566</v>
+        <v>0.3812600969305331</v>
       </c>
       <c r="AK3">
-        <v>0.4856425418168563</v>
+        <v>0.3794212218649518</v>
       </c>
       <c r="AL3">
-        <v>1.33</v>
+        <v>0.824</v>
       </c>
       <c r="AM3">
-        <v>1.33</v>
+        <v>0.7979999999999999</v>
       </c>
       <c r="AN3">
-        <v>-13.10043668122271</v>
+        <v>3.317307692307692</v>
       </c>
       <c r="AO3">
-        <v>-1.56390977443609</v>
+        <v>9.004854368932039</v>
       </c>
       <c r="AP3">
-        <v>-13.09061135371179</v>
+        <v>2.269230769230769</v>
       </c>
       <c r="AQ3">
-        <v>-1.56390977443609</v>
+        <v>9.298245614035089</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +852,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Electrolux de Chile S.A. (SNSE:ELUXSA)</t>
+          <t>Infodema S.A. (SNSE:INFODEMA)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,118 +861,8833 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.08839999999999999</v>
+        <v>-0.113</v>
       </c>
       <c r="G4">
-        <v>0.02074758504829904</v>
+        <v>-0.1322314049586777</v>
       </c>
       <c r="H4">
-        <v>0.02074758504829904</v>
+        <v>-0.1322314049586777</v>
       </c>
       <c r="I4">
-        <v>-0.05879882402351953</v>
+        <v>-0.2297520661157025</v>
       </c>
       <c r="J4">
-        <v>-0.05879882402351953</v>
+        <v>-0.2297520661157025</v>
       </c>
       <c r="K4">
-        <v>-33.1</v>
+        <v>-3.79</v>
       </c>
       <c r="L4">
-        <v>-0.1390172196556069</v>
+        <v>-0.3132231404958678</v>
       </c>
       <c r="M4">
-        <v>23.07</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.06220005392289027</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>-0.6969788519637462</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.27</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.0007279590186033973</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>-0.008157099697885197</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>22.8</v>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.005</v>
+      </c>
+      <c r="V4">
+        <v>0.001976284584980237</v>
+      </c>
+      <c r="W4">
+        <v>-0.2526666666666667</v>
+      </c>
+      <c r="X4">
+        <v>0.2370146594104386</v>
+      </c>
+      <c r="Y4">
+        <v>-0.4896813260771052</v>
+      </c>
+      <c r="Z4">
+        <v>0.4569313847664362</v>
+      </c>
+      <c r="AA4">
+        <v>-0.1049809297231978</v>
+      </c>
+      <c r="AB4">
+        <v>0.06639434524952073</v>
+      </c>
+      <c r="AC4">
+        <v>-0.1713752749727185</v>
+      </c>
+      <c r="AD4">
+        <v>10.8</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>10.8</v>
+      </c>
+      <c r="AG4">
+        <v>10.795</v>
+      </c>
+      <c r="AH4">
+        <v>0.8102025506376594</v>
+      </c>
+      <c r="AI4">
+        <v>0.5756929637526652</v>
+      </c>
+      <c r="AJ4">
+        <v>0.8101313320825516</v>
+      </c>
+      <c r="AK4">
+        <v>0.5755798453745669</v>
+      </c>
+      <c r="AL4">
+        <v>0.479</v>
+      </c>
+      <c r="AM4">
+        <v>0.479</v>
+      </c>
+      <c r="AN4">
+        <v>-6.101694915254238</v>
+      </c>
+      <c r="AO4">
+        <v>-5.803757828810021</v>
+      </c>
+      <c r="AP4">
+        <v>-6.098870056497175</v>
+      </c>
+      <c r="AQ4">
+        <v>-5.803757828810021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Companias CIC S.A. (SNSE:CIC)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SNSE:CIC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Furn/Home Furnishings</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.473901098901099</v>
+      </c>
+      <c r="F2">
+        <v>0.99</v>
+      </c>
+      <c r="G2">
+        <v>38.3</v>
+      </c>
+      <c r="H2">
+        <v>12.0252946409586</v>
+      </c>
+      <c r="I2">
+        <v>61.9</v>
+      </c>
+      <c r="J2">
+        <v>73.1972946409586</v>
+      </c>
+      <c r="K2">
+        <v>34.5</v>
+      </c>
+      <c r="L2">
+        <v>72.072</v>
+      </c>
+      <c r="M2">
+        <v>0.06565846649858249</v>
+      </c>
+      <c r="N2">
+        <v>0.0569600821570551</v>
+      </c>
+      <c r="O2">
+        <v>0.026424956839602</v>
+      </c>
+      <c r="P2">
+        <v>0.016498</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.100999356400275</v>
+      </c>
+      <c r="T2">
+        <v>4.06270621570551</v>
+      </c>
+      <c r="U2">
+        <v>1.69766224257884</v>
+      </c>
+      <c r="V2">
+        <v>75.0421263176604</v>
+      </c>
+      <c r="W2">
+        <v>4.55542490940721</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>38.3</v>
+      </c>
+      <c r="AB2">
+        <v>0.05401507679229468</v>
+      </c>
+      <c r="AC2">
+        <v>0.03619857101315345</v>
+      </c>
+      <c r="AD2">
+        <v>0.27</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>10.4</v>
+      </c>
+      <c r="AH2">
+        <v>2.98</v>
+      </c>
+      <c r="AI2">
+        <v>6.140000000000001</v>
+      </c>
+      <c r="AJ2">
+        <v>34.5</v>
+      </c>
+      <c r="AK2">
+        <v>34.5</v>
+      </c>
+      <c r="AL2">
+        <v>0.824</v>
+      </c>
+      <c r="AM2">
+        <v>34.5</v>
+      </c>
+      <c r="AN2">
+        <v>10.9</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06462149878129532</v>
+      </c>
+      <c r="C2">
+        <v>73.96027770602949</v>
+      </c>
+      <c r="D2">
+        <v>63.06027770602949</v>
+      </c>
+      <c r="E2">
+        <v>-34.5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>10.9</v>
+      </c>
+      <c r="H2">
+        <v>38.3</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>10.4</v>
+      </c>
+      <c r="K2">
+        <v>2.98</v>
+      </c>
+      <c r="L2">
+        <v>7.42</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>7.42</v>
+      </c>
+      <c r="O2">
+        <v>2.0034</v>
+      </c>
+      <c r="P2">
+        <v>5.4166</v>
+      </c>
+      <c r="Q2">
+        <v>8.396599999999999</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.06462149878129532</v>
+      </c>
+      <c r="T2">
+        <v>1.024186246999597</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.27</v>
+      </c>
+      <c r="W2">
+        <v>0.011826</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.06449739073458582</v>
+      </c>
+      <c r="C3">
+        <v>73.37406498595158</v>
+      </c>
+      <c r="D3">
+        <v>63.20206498595157</v>
+      </c>
+      <c r="E3">
+        <v>-33.772</v>
+      </c>
+      <c r="F3">
+        <v>0.728</v>
+      </c>
+      <c r="G3">
+        <v>10.9</v>
+      </c>
+      <c r="H3">
+        <v>38.3</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>10.4</v>
+      </c>
+      <c r="K3">
+        <v>2.98</v>
+      </c>
+      <c r="L3">
+        <v>7.42</v>
+      </c>
+      <c r="M3">
+        <v>0.0117936</v>
+      </c>
+      <c r="N3">
+        <v>7.4082064</v>
+      </c>
+      <c r="O3">
+        <v>2.000215728</v>
+      </c>
+      <c r="P3">
+        <v>5.407990672</v>
+      </c>
+      <c r="Q3">
+        <v>8.387990672000001</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.06502942498443014</v>
+      </c>
+      <c r="T3">
+        <v>1.031738327406766</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.27</v>
+      </c>
+      <c r="W3">
+        <v>0.011826</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>629.1547958214625</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.06437328268787633</v>
+      </c>
+      <c r="C4">
+        <v>72.78849130322537</v>
+      </c>
+      <c r="D4">
+        <v>63.34449130322537</v>
+      </c>
+      <c r="E4">
+        <v>-33.044</v>
+      </c>
+      <c r="F4">
+        <v>1.456</v>
+      </c>
+      <c r="G4">
+        <v>10.9</v>
+      </c>
+      <c r="H4">
+        <v>38.3</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>10.4</v>
+      </c>
+      <c r="K4">
+        <v>2.98</v>
+      </c>
+      <c r="L4">
+        <v>7.42</v>
+      </c>
+      <c r="M4">
+        <v>0.0235872</v>
+      </c>
+      <c r="N4">
+        <v>7.3964128</v>
+      </c>
+      <c r="O4">
+        <v>1.997031456</v>
+      </c>
+      <c r="P4">
+        <v>5.399381344</v>
+      </c>
+      <c r="Q4">
+        <v>8.379381344</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.06544567621211871</v>
       </c>
       <c r="T4">
-        <v>0.988296488946684</v>
+        <v>1.039444531903877</v>
       </c>
       <c r="U4">
-        <v>9.619999999999999</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
-        <v>0.0259369102183877</v>
+        <v>0.27</v>
       </c>
       <c r="W4">
-        <v>-0.1170852493809692</v>
-      </c>
-      <c r="X4">
-        <v>0.07909173203710831</v>
+        <v>0.011826</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
       </c>
       <c r="Y4">
-        <v>-0.1961769814180775</v>
+        <v>314.5773979107313</v>
       </c>
       <c r="Z4">
-        <v>1.71913357400722</v>
-      </c>
-      <c r="AA4">
-        <v>-0.1010830324909747</v>
-      </c>
-      <c r="AB4">
-        <v>0.07844111918009936</v>
-      </c>
-      <c r="AC4">
-        <v>-0.1795241516710741</v>
-      </c>
-      <c r="AD4">
-        <v>5.2</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>5.2</v>
-      </c>
-      <c r="AG4">
-        <v>-4.419999999999999</v>
-      </c>
-      <c r="AH4">
-        <v>0.01382611007710715</v>
-      </c>
-      <c r="AI4">
-        <v>0.02535348610433935</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.01206068543986029</v>
-      </c>
-      <c r="AK4">
-        <v>-0.0226110087988541</v>
-      </c>
-      <c r="AL4">
-        <v>0.737</v>
-      </c>
-      <c r="AM4">
-        <v>-0.3130000000000001</v>
-      </c>
-      <c r="AN4">
-        <v>-3.04093567251462</v>
-      </c>
-      <c r="AO4">
-        <v>-18.99592944369064</v>
-      </c>
-      <c r="AP4">
-        <v>2.584795321637426</v>
-      </c>
-      <c r="AQ4">
-        <v>44.72843450479233</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.06424917464116683</v>
+      </c>
+      <c r="C5">
+        <v>72.20356098783462</v>
+      </c>
+      <c r="D5">
+        <v>63.48756098783462</v>
+      </c>
+      <c r="E5">
+        <v>-32.316</v>
+      </c>
+      <c r="F5">
+        <v>2.184</v>
+      </c>
+      <c r="G5">
+        <v>10.9</v>
+      </c>
+      <c r="H5">
+        <v>38.3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>10.4</v>
+      </c>
+      <c r="K5">
+        <v>2.98</v>
+      </c>
+      <c r="L5">
+        <v>7.42</v>
+      </c>
+      <c r="M5">
+        <v>0.0353808</v>
+      </c>
+      <c r="N5">
+        <v>7.384619199999999</v>
+      </c>
+      <c r="O5">
+        <v>1.993847184</v>
+      </c>
+      <c r="P5">
+        <v>5.390772016</v>
+      </c>
+      <c r="Q5">
+        <v>8.370772016</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.06587050993934726</v>
+      </c>
+      <c r="T5">
+        <v>1.047309627215361</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.27</v>
+      </c>
+      <c r="W5">
+        <v>0.011826</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>209.7182652738208</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.06412506659445734</v>
+      </c>
+      <c r="C6">
+        <v>71.61927840897035</v>
+      </c>
+      <c r="D6">
+        <v>63.63127840897035</v>
+      </c>
+      <c r="E6">
+        <v>-31.588</v>
+      </c>
+      <c r="F6">
+        <v>2.912</v>
+      </c>
+      <c r="G6">
+        <v>10.9</v>
+      </c>
+      <c r="H6">
+        <v>38.3</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>10.4</v>
+      </c>
+      <c r="K6">
+        <v>2.98</v>
+      </c>
+      <c r="L6">
+        <v>7.42</v>
+      </c>
+      <c r="M6">
+        <v>0.0471744</v>
+      </c>
+      <c r="N6">
+        <v>7.3728256</v>
+      </c>
+      <c r="O6">
+        <v>1.990662912</v>
+      </c>
+      <c r="P6">
+        <v>5.382162687999999</v>
+      </c>
+      <c r="Q6">
+        <v>8.362162688</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.0663041943692264</v>
+      </c>
+      <c r="T6">
+        <v>1.055338578679168</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.27</v>
+      </c>
+      <c r="W6">
+        <v>0.011826</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>157.2886989553656</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.06400095854774784</v>
+      </c>
+      <c r="C7">
+        <v>71.0356479754757</v>
+      </c>
+      <c r="D7">
+        <v>63.77564797547569</v>
+      </c>
+      <c r="E7">
+        <v>-30.86</v>
+      </c>
+      <c r="F7">
+        <v>3.64</v>
+      </c>
+      <c r="G7">
+        <v>10.9</v>
+      </c>
+      <c r="H7">
+        <v>38.3</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>10.4</v>
+      </c>
+      <c r="K7">
+        <v>2.98</v>
+      </c>
+      <c r="L7">
+        <v>7.42</v>
+      </c>
+      <c r="M7">
+        <v>0.058968</v>
+      </c>
+      <c r="N7">
+        <v>7.361032</v>
+      </c>
+      <c r="O7">
+        <v>1.98747864</v>
+      </c>
+      <c r="P7">
+        <v>5.37355336</v>
+      </c>
+      <c r="Q7">
+        <v>8.353553359999999</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.06674700899762931</v>
+      </c>
+      <c r="T7">
+        <v>1.063536560700108</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.27</v>
+      </c>
+      <c r="W7">
+        <v>0.011826</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>125.8309591642925</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.06387685050103833</v>
+      </c>
+      <c r="C8">
+        <v>70.45267413629674</v>
+      </c>
+      <c r="D8">
+        <v>63.92067413629673</v>
+      </c>
+      <c r="E8">
+        <v>-30.132</v>
+      </c>
+      <c r="F8">
+        <v>4.367999999999999</v>
+      </c>
+      <c r="G8">
+        <v>10.9</v>
+      </c>
+      <c r="H8">
+        <v>38.3</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>10.4</v>
+      </c>
+      <c r="K8">
+        <v>2.98</v>
+      </c>
+      <c r="L8">
+        <v>7.42</v>
+      </c>
+      <c r="M8">
+        <v>0.07076159999999999</v>
+      </c>
+      <c r="N8">
+        <v>7.3492384</v>
+      </c>
+      <c r="O8">
+        <v>1.984294368</v>
+      </c>
+      <c r="P8">
+        <v>5.364944032</v>
+      </c>
+      <c r="Q8">
+        <v>8.344944032000001</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.06719924521387058</v>
+      </c>
+      <c r="T8">
+        <v>1.071908967870429</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.27</v>
+      </c>
+      <c r="W8">
+        <v>0.011826</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>104.8591326369104</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.06375274245432884</v>
+      </c>
+      <c r="C9">
+        <v>69.87036138093944</v>
+      </c>
+      <c r="D9">
+        <v>64.06636138093944</v>
+      </c>
+      <c r="E9">
+        <v>-29.404</v>
+      </c>
+      <c r="F9">
+        <v>5.096</v>
+      </c>
+      <c r="G9">
+        <v>10.9</v>
+      </c>
+      <c r="H9">
+        <v>38.3</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>10.4</v>
+      </c>
+      <c r="K9">
+        <v>2.98</v>
+      </c>
+      <c r="L9">
+        <v>7.42</v>
+      </c>
+      <c r="M9">
+        <v>0.0825552</v>
+      </c>
+      <c r="N9">
+        <v>7.3374448</v>
+      </c>
+      <c r="O9">
+        <v>1.981110096</v>
+      </c>
+      <c r="P9">
+        <v>5.356334704</v>
+      </c>
+      <c r="Q9">
+        <v>8.336334704</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06766120694013854</v>
+      </c>
+      <c r="T9">
+        <v>1.080461426807855</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.27</v>
+      </c>
+      <c r="W9">
+        <v>0.011826</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>89.87925654592321</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.06362863440761936</v>
+      </c>
+      <c r="C10">
+        <v>69.28871423993303</v>
+      </c>
+      <c r="D10">
+        <v>64.21271423993302</v>
+      </c>
+      <c r="E10">
+        <v>-28.676</v>
+      </c>
+      <c r="F10">
+        <v>5.824</v>
+      </c>
+      <c r="G10">
+        <v>10.9</v>
+      </c>
+      <c r="H10">
+        <v>38.3</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>10.4</v>
+      </c>
+      <c r="K10">
+        <v>2.98</v>
+      </c>
+      <c r="L10">
+        <v>7.42</v>
+      </c>
+      <c r="M10">
+        <v>0.0943488</v>
+      </c>
+      <c r="N10">
+        <v>7.3256512</v>
+      </c>
+      <c r="O10">
+        <v>1.977925824</v>
+      </c>
+      <c r="P10">
+        <v>5.347725376</v>
+      </c>
+      <c r="Q10">
+        <v>8.327725376</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.06813321131262973</v>
+      </c>
+      <c r="T10">
+        <v>1.089199808765658</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.27</v>
+      </c>
+      <c r="W10">
+        <v>0.011826</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>78.64434947768282</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.06350452636090985</v>
+      </c>
+      <c r="C11">
+        <v>68.7077372852996</v>
+      </c>
+      <c r="D11">
+        <v>64.3597372852996</v>
+      </c>
+      <c r="E11">
+        <v>-27.948</v>
+      </c>
+      <c r="F11">
+        <v>6.552</v>
+      </c>
+      <c r="G11">
+        <v>10.9</v>
+      </c>
+      <c r="H11">
+        <v>38.3</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>10.4</v>
+      </c>
+      <c r="K11">
+        <v>2.98</v>
+      </c>
+      <c r="L11">
+        <v>7.42</v>
+      </c>
+      <c r="M11">
+        <v>0.1061424</v>
+      </c>
+      <c r="N11">
+        <v>7.3138576</v>
+      </c>
+      <c r="O11">
+        <v>1.974741552</v>
+      </c>
+      <c r="P11">
+        <v>5.339116047999999</v>
+      </c>
+      <c r="Q11">
+        <v>8.319116048</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.06861558940759324</v>
+      </c>
+      <c r="T11">
+        <v>1.098130243074183</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.27</v>
+      </c>
+      <c r="W11">
+        <v>0.011826</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>69.90608842460695</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.06338041831420035</v>
+      </c>
+      <c r="C12">
+        <v>68.12743513103017</v>
+      </c>
+      <c r="D12">
+        <v>64.50743513103016</v>
+      </c>
+      <c r="E12">
+        <v>-27.22</v>
+      </c>
+      <c r="F12">
+        <v>7.28</v>
+      </c>
+      <c r="G12">
+        <v>10.9</v>
+      </c>
+      <c r="H12">
+        <v>38.3</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>10.4</v>
+      </c>
+      <c r="K12">
+        <v>2.98</v>
+      </c>
+      <c r="L12">
+        <v>7.42</v>
+      </c>
+      <c r="M12">
+        <v>0.117936</v>
+      </c>
+      <c r="N12">
+        <v>7.302064</v>
+      </c>
+      <c r="O12">
+        <v>1.97155728</v>
+      </c>
+      <c r="P12">
+        <v>5.33050672</v>
+      </c>
+      <c r="Q12">
+        <v>8.310506719999999</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.06910868701577817</v>
+      </c>
+      <c r="T12">
+        <v>1.107259131478453</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.27</v>
+      </c>
+      <c r="W12">
+        <v>0.011826</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>62.91547958214625</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.06325631026749085</v>
+      </c>
+      <c r="C13">
+        <v>67.5478124335674</v>
+      </c>
+      <c r="D13">
+        <v>64.65581243356739</v>
+      </c>
+      <c r="E13">
+        <v>-26.492</v>
+      </c>
+      <c r="F13">
+        <v>8.007999999999999</v>
+      </c>
+      <c r="G13">
+        <v>10.9</v>
+      </c>
+      <c r="H13">
+        <v>38.3</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>10.4</v>
+      </c>
+      <c r="K13">
+        <v>2.98</v>
+      </c>
+      <c r="L13">
+        <v>7.42</v>
+      </c>
+      <c r="M13">
+        <v>0.1297296</v>
+      </c>
+      <c r="N13">
+        <v>7.2902704</v>
+      </c>
+      <c r="O13">
+        <v>1.968373008</v>
+      </c>
+      <c r="P13">
+        <v>5.321897391999999</v>
+      </c>
+      <c r="Q13">
+        <v>8.301897392000001</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.06961286546909085</v>
+      </c>
+      <c r="T13">
+        <v>1.11659316344237</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.27</v>
+      </c>
+      <c r="W13">
+        <v>0.011826</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>57.19589052922387</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.06313220222078135</v>
+      </c>
+      <c r="C14">
+        <v>66.96887389229494</v>
+      </c>
+      <c r="D14">
+        <v>64.80487389229494</v>
+      </c>
+      <c r="E14">
+        <v>-25.764</v>
+      </c>
+      <c r="F14">
+        <v>8.735999999999999</v>
+      </c>
+      <c r="G14">
+        <v>10.9</v>
+      </c>
+      <c r="H14">
+        <v>38.3</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>10.4</v>
+      </c>
+      <c r="K14">
+        <v>2.98</v>
+      </c>
+      <c r="L14">
+        <v>7.42</v>
+      </c>
+      <c r="M14">
+        <v>0.1415232</v>
+      </c>
+      <c r="N14">
+        <v>7.2784768</v>
+      </c>
+      <c r="O14">
+        <v>1.965188736</v>
+      </c>
+      <c r="P14">
+        <v>5.313288064</v>
+      </c>
+      <c r="Q14">
+        <v>8.293288064</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.07012850252361517</v>
+      </c>
+      <c r="T14">
+        <v>1.126139332496375</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.27</v>
+      </c>
+      <c r="W14">
+        <v>0.011826</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>52.42956631845521</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.06300809417407185</v>
+      </c>
+      <c r="C15">
+        <v>66.39062425003358</v>
+      </c>
+      <c r="D15">
+        <v>64.95462425003358</v>
+      </c>
+      <c r="E15">
+        <v>-25.036</v>
+      </c>
+      <c r="F15">
+        <v>9.464</v>
+      </c>
+      <c r="G15">
+        <v>10.9</v>
+      </c>
+      <c r="H15">
+        <v>38.3</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>10.4</v>
+      </c>
+      <c r="K15">
+        <v>2.98</v>
+      </c>
+      <c r="L15">
+        <v>7.42</v>
+      </c>
+      <c r="M15">
+        <v>0.1533168</v>
+      </c>
+      <c r="N15">
+        <v>7.2666832</v>
+      </c>
+      <c r="O15">
+        <v>1.962004464</v>
+      </c>
+      <c r="P15">
+        <v>5.304678736</v>
+      </c>
+      <c r="Q15">
+        <v>8.284678736</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.07065599330353087</v>
+      </c>
+      <c r="T15">
+        <v>1.135904953712542</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.27</v>
+      </c>
+      <c r="W15">
+        <v>0.011826</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>48.39652275549712</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.06288398612736236</v>
+      </c>
+      <c r="C16">
+        <v>65.81306829354426</v>
+      </c>
+      <c r="D16">
+        <v>65.10506829354426</v>
+      </c>
+      <c r="E16">
+        <v>-24.308</v>
+      </c>
+      <c r="F16">
+        <v>10.192</v>
+      </c>
+      <c r="G16">
+        <v>10.9</v>
+      </c>
+      <c r="H16">
+        <v>38.3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>10.4</v>
+      </c>
+      <c r="K16">
+        <v>2.98</v>
+      </c>
+      <c r="L16">
+        <v>7.42</v>
+      </c>
+      <c r="M16">
+        <v>0.1651104</v>
+      </c>
+      <c r="N16">
+        <v>7.2548896</v>
+      </c>
+      <c r="O16">
+        <v>1.958820192</v>
+      </c>
+      <c r="P16">
+        <v>5.296069408</v>
+      </c>
+      <c r="Q16">
+        <v>8.276069408000001</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.07119575131088646</v>
+      </c>
+      <c r="T16">
+        <v>1.145897682398851</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.27</v>
+      </c>
+      <c r="W16">
+        <v>0.011826</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>44.93962827296161</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.06275987808065286</v>
+      </c>
+      <c r="C17">
+        <v>65.23621085403813</v>
+      </c>
+      <c r="D17">
+        <v>65.25621085403813</v>
+      </c>
+      <c r="E17">
+        <v>-23.58</v>
+      </c>
+      <c r="F17">
+        <v>10.92</v>
+      </c>
+      <c r="G17">
+        <v>10.9</v>
+      </c>
+      <c r="H17">
+        <v>38.3</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>10.4</v>
+      </c>
+      <c r="K17">
+        <v>2.98</v>
+      </c>
+      <c r="L17">
+        <v>7.42</v>
+      </c>
+      <c r="M17">
+        <v>0.176904</v>
+      </c>
+      <c r="N17">
+        <v>7.243096</v>
+      </c>
+      <c r="O17">
+        <v>1.95563592</v>
+      </c>
+      <c r="P17">
+        <v>5.28746008</v>
+      </c>
+      <c r="Q17">
+        <v>8.267460079999999</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.07174820950665044</v>
+      </c>
+      <c r="T17">
+        <v>1.156125534113075</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.27</v>
+      </c>
+      <c r="W17">
+        <v>0.011826</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>41.94365305476417</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.06263577003394337</v>
+      </c>
+      <c r="C18">
+        <v>64.66005680769369</v>
+      </c>
+      <c r="D18">
+        <v>65.40805680769368</v>
+      </c>
+      <c r="E18">
+        <v>-22.852</v>
+      </c>
+      <c r="F18">
+        <v>11.648</v>
+      </c>
+      <c r="G18">
+        <v>10.9</v>
+      </c>
+      <c r="H18">
+        <v>38.3</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>10.4</v>
+      </c>
+      <c r="K18">
+        <v>2.98</v>
+      </c>
+      <c r="L18">
+        <v>7.42</v>
+      </c>
+      <c r="M18">
+        <v>0.1886976</v>
+      </c>
+      <c r="N18">
+        <v>7.2313024</v>
+      </c>
+      <c r="O18">
+        <v>1.952451648</v>
+      </c>
+      <c r="P18">
+        <v>5.278850751999999</v>
+      </c>
+      <c r="Q18">
+        <v>8.258850752000001</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.0723138214689802</v>
+      </c>
+      <c r="T18">
+        <v>1.166596906106208</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.27</v>
+      </c>
+      <c r="W18">
+        <v>0.011826</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>39.3221747388414</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.06251166198723387</v>
+      </c>
+      <c r="C19">
+        <v>64.08461107618119</v>
+      </c>
+      <c r="D19">
+        <v>65.56061107618119</v>
+      </c>
+      <c r="E19">
+        <v>-22.124</v>
+      </c>
+      <c r="F19">
+        <v>12.376</v>
+      </c>
+      <c r="G19">
+        <v>10.9</v>
+      </c>
+      <c r="H19">
+        <v>38.3</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>10.4</v>
+      </c>
+      <c r="K19">
+        <v>2.98</v>
+      </c>
+      <c r="L19">
+        <v>7.42</v>
+      </c>
+      <c r="M19">
+        <v>0.2004912</v>
+      </c>
+      <c r="N19">
+        <v>7.2195088</v>
+      </c>
+      <c r="O19">
+        <v>1.949267376</v>
+      </c>
+      <c r="P19">
+        <v>5.270241424</v>
+      </c>
+      <c r="Q19">
+        <v>8.250241424</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.07289306263522154</v>
+      </c>
+      <c r="T19">
+        <v>1.177320600316043</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.27</v>
+      </c>
+      <c r="W19">
+        <v>0.011826</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>37.00910563655661</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.06238755394052437</v>
+      </c>
+      <c r="C20">
+        <v>63.50987862719441</v>
+      </c>
+      <c r="D20">
+        <v>65.7138786271944</v>
+      </c>
+      <c r="E20">
+        <v>-21.396</v>
+      </c>
+      <c r="F20">
+        <v>13.104</v>
+      </c>
+      <c r="G20">
+        <v>10.9</v>
+      </c>
+      <c r="H20">
+        <v>38.3</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>10.4</v>
+      </c>
+      <c r="K20">
+        <v>2.98</v>
+      </c>
+      <c r="L20">
+        <v>7.42</v>
+      </c>
+      <c r="M20">
+        <v>0.2122848</v>
+      </c>
+      <c r="N20">
+        <v>7.2077152</v>
+      </c>
+      <c r="O20">
+        <v>1.946083104</v>
+      </c>
+      <c r="P20">
+        <v>5.261632096</v>
+      </c>
+      <c r="Q20">
+        <v>8.241632096</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.07348643163478581</v>
+      </c>
+      <c r="T20">
+        <v>1.188305848043191</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.27</v>
+      </c>
+      <c r="W20">
+        <v>0.011826</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>34.95304421230347</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.06226344589381488</v>
+      </c>
+      <c r="C21">
+        <v>62.93586447498982</v>
+      </c>
+      <c r="D21">
+        <v>65.86786447498982</v>
+      </c>
+      <c r="E21">
+        <v>-20.668</v>
+      </c>
+      <c r="F21">
+        <v>13.832</v>
+      </c>
+      <c r="G21">
+        <v>10.9</v>
+      </c>
+      <c r="H21">
+        <v>38.3</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>10.4</v>
+      </c>
+      <c r="K21">
+        <v>2.98</v>
+      </c>
+      <c r="L21">
+        <v>7.42</v>
+      </c>
+      <c r="M21">
+        <v>0.2240784</v>
+      </c>
+      <c r="N21">
+        <v>7.1959216</v>
+      </c>
+      <c r="O21">
+        <v>1.942898832</v>
+      </c>
+      <c r="P21">
+        <v>5.253022768</v>
+      </c>
+      <c r="Q21">
+        <v>8.233022768000001</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.07409445172075911</v>
+      </c>
+      <c r="T21">
+        <v>1.19956233645496</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.27</v>
+      </c>
+      <c r="W21">
+        <v>0.011826</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>33.11341030639277</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.06213933784710538</v>
+      </c>
+      <c r="C22">
+        <v>62.36257368093354</v>
+      </c>
+      <c r="D22">
+        <v>66.02257368093353</v>
+      </c>
+      <c r="E22">
+        <v>-19.94</v>
+      </c>
+      <c r="F22">
+        <v>14.56</v>
+      </c>
+      <c r="G22">
+        <v>10.9</v>
+      </c>
+      <c r="H22">
+        <v>38.3</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>10.4</v>
+      </c>
+      <c r="K22">
+        <v>2.98</v>
+      </c>
+      <c r="L22">
+        <v>7.42</v>
+      </c>
+      <c r="M22">
+        <v>0.235872</v>
+      </c>
+      <c r="N22">
+        <v>7.184128</v>
+      </c>
+      <c r="O22">
+        <v>1.93971456</v>
+      </c>
+      <c r="P22">
+        <v>5.24441344</v>
+      </c>
+      <c r="Q22">
+        <v>8.224413439999999</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.07471767230888172</v>
+      </c>
+      <c r="T22">
+        <v>1.211100237077024</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.27</v>
+      </c>
+      <c r="W22">
+        <v>0.011826</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>31.45773979107313</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.06201522980039589</v>
+      </c>
+      <c r="C23">
+        <v>61.79001135405571</v>
+      </c>
+      <c r="D23">
+        <v>66.1780113540557</v>
+      </c>
+      <c r="E23">
+        <v>-19.212</v>
+      </c>
+      <c r="F23">
+        <v>15.288</v>
+      </c>
+      <c r="G23">
+        <v>10.9</v>
+      </c>
+      <c r="H23">
+        <v>38.3</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>10.4</v>
+      </c>
+      <c r="K23">
+        <v>2.98</v>
+      </c>
+      <c r="L23">
+        <v>7.42</v>
+      </c>
+      <c r="M23">
+        <v>0.2476656</v>
+      </c>
+      <c r="N23">
+        <v>7.1723344</v>
+      </c>
+      <c r="O23">
+        <v>1.936530288</v>
+      </c>
+      <c r="P23">
+        <v>5.235804111999999</v>
+      </c>
+      <c r="Q23">
+        <v>8.215804112000001</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.07535667063341252</v>
+      </c>
+      <c r="T23">
+        <v>1.222930236449013</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.27</v>
+      </c>
+      <c r="W23">
+        <v>0.011826</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>29.95975218197441</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.06189112175368639</v>
+      </c>
+      <c r="C24">
+        <v>61.21818265161308</v>
+      </c>
+      <c r="D24">
+        <v>66.33418265161308</v>
+      </c>
+      <c r="E24">
+        <v>-18.484</v>
+      </c>
+      <c r="F24">
+        <v>16.016</v>
+      </c>
+      <c r="G24">
+        <v>10.9</v>
+      </c>
+      <c r="H24">
+        <v>38.3</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>10.4</v>
+      </c>
+      <c r="K24">
+        <v>2.98</v>
+      </c>
+      <c r="L24">
+        <v>7.42</v>
+      </c>
+      <c r="M24">
+        <v>0.2594591999999999</v>
+      </c>
+      <c r="N24">
+        <v>7.1605408</v>
+      </c>
+      <c r="O24">
+        <v>1.933346016</v>
+      </c>
+      <c r="P24">
+        <v>5.227194784</v>
+      </c>
+      <c r="Q24">
+        <v>8.207194784</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.07601205353036716</v>
+      </c>
+      <c r="T24">
+        <v>1.235063569138232</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.27</v>
+      </c>
+      <c r="W24">
+        <v>0.011826</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>28.59794526461194</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.06176701370697689</v>
+      </c>
+      <c r="C25">
+        <v>60.64709277965926</v>
+      </c>
+      <c r="D25">
+        <v>66.49109277965925</v>
+      </c>
+      <c r="E25">
+        <v>-17.756</v>
+      </c>
+      <c r="F25">
+        <v>16.744</v>
+      </c>
+      <c r="G25">
+        <v>10.9</v>
+      </c>
+      <c r="H25">
+        <v>38.3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>10.4</v>
+      </c>
+      <c r="K25">
+        <v>2.98</v>
+      </c>
+      <c r="L25">
+        <v>7.42</v>
+      </c>
+      <c r="M25">
+        <v>0.2712528</v>
+      </c>
+      <c r="N25">
+        <v>7.1487472</v>
+      </c>
+      <c r="O25">
+        <v>1.930161744</v>
+      </c>
+      <c r="P25">
+        <v>5.218585456</v>
+      </c>
+      <c r="Q25">
+        <v>8.198585456</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.07668445935971024</v>
+      </c>
+      <c r="T25">
+        <v>1.247512053325873</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.27</v>
+      </c>
+      <c r="W25">
+        <v>0.011826</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>27.35455634006359</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.06164290566026738</v>
+      </c>
+      <c r="C26">
+        <v>60.07674699362333</v>
+      </c>
+      <c r="D26">
+        <v>66.64874699362332</v>
+      </c>
+      <c r="E26">
+        <v>-17.028</v>
+      </c>
+      <c r="F26">
+        <v>17.472</v>
+      </c>
+      <c r="G26">
+        <v>10.9</v>
+      </c>
+      <c r="H26">
+        <v>38.3</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>10.4</v>
+      </c>
+      <c r="K26">
+        <v>2.98</v>
+      </c>
+      <c r="L26">
+        <v>7.42</v>
+      </c>
+      <c r="M26">
+        <v>0.2830464</v>
+      </c>
+      <c r="N26">
+        <v>7.1369536</v>
+      </c>
+      <c r="O26">
+        <v>1.926977472</v>
+      </c>
+      <c r="P26">
+        <v>5.209976128</v>
+      </c>
+      <c r="Q26">
+        <v>8.189976128000001</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.07737456007929919</v>
+      </c>
+      <c r="T26">
+        <v>1.260288129202662</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.27</v>
+      </c>
+      <c r="W26">
+        <v>0.011826</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>26.2147831592276</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.0615187976135579</v>
+      </c>
+      <c r="C27">
+        <v>59.5071505988964</v>
+      </c>
+      <c r="D27">
+        <v>66.8071505988964</v>
+      </c>
+      <c r="E27">
+        <v>-16.3</v>
+      </c>
+      <c r="F27">
+        <v>18.2</v>
+      </c>
+      <c r="G27">
+        <v>10.9</v>
+      </c>
+      <c r="H27">
+        <v>38.3</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>10.4</v>
+      </c>
+      <c r="K27">
+        <v>2.98</v>
+      </c>
+      <c r="L27">
+        <v>7.42</v>
+      </c>
+      <c r="M27">
+        <v>0.29484</v>
+      </c>
+      <c r="N27">
+        <v>7.12516</v>
+      </c>
+      <c r="O27">
+        <v>1.9237932</v>
+      </c>
+      <c r="P27">
+        <v>5.2013668</v>
+      </c>
+      <c r="Q27">
+        <v>8.181366799999999</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.07808306348474386</v>
+      </c>
+      <c r="T27">
+        <v>1.273404900436166</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.27</v>
+      </c>
+      <c r="W27">
+        <v>0.011826</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>25.1661918328585</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.06139468956684839</v>
+      </c>
+      <c r="C28">
+        <v>58.93830895142709</v>
+      </c>
+      <c r="D28">
+        <v>66.96630895142708</v>
+      </c>
+      <c r="E28">
+        <v>-15.572</v>
+      </c>
+      <c r="F28">
+        <v>18.928</v>
+      </c>
+      <c r="G28">
+        <v>10.9</v>
+      </c>
+      <c r="H28">
+        <v>38.3</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>10.4</v>
+      </c>
+      <c r="K28">
+        <v>2.98</v>
+      </c>
+      <c r="L28">
+        <v>7.42</v>
+      </c>
+      <c r="M28">
+        <v>0.3066336</v>
+      </c>
+      <c r="N28">
+        <v>7.1133664</v>
+      </c>
+      <c r="O28">
+        <v>1.920608928</v>
+      </c>
+      <c r="P28">
+        <v>5.192757472</v>
+      </c>
+      <c r="Q28">
+        <v>8.172757472000001</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.0788107156308762</v>
+      </c>
+      <c r="T28">
+        <v>1.286876179000304</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.27</v>
+      </c>
+      <c r="W28">
+        <v>0.011826</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>24.19826137774856</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.0612705815201389</v>
+      </c>
+      <c r="C29">
+        <v>58.37022745832478</v>
+      </c>
+      <c r="D29">
+        <v>67.12622745832478</v>
+      </c>
+      <c r="E29">
+        <v>-14.844</v>
+      </c>
+      <c r="F29">
+        <v>19.656</v>
+      </c>
+      <c r="G29">
+        <v>10.9</v>
+      </c>
+      <c r="H29">
+        <v>38.3</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>10.4</v>
+      </c>
+      <c r="K29">
+        <v>2.98</v>
+      </c>
+      <c r="L29">
+        <v>7.42</v>
+      </c>
+      <c r="M29">
+        <v>0.3184272</v>
+      </c>
+      <c r="N29">
+        <v>7.1015728</v>
+      </c>
+      <c r="O29">
+        <v>1.917424656</v>
+      </c>
+      <c r="P29">
+        <v>5.184148144</v>
+      </c>
+      <c r="Q29">
+        <v>8.164148144</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.07955830345224507</v>
+      </c>
+      <c r="T29">
+        <v>1.300716533689488</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.27</v>
+      </c>
+      <c r="W29">
+        <v>0.011826</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>23.30202947486898</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.0611464734734294</v>
+      </c>
+      <c r="C30">
+        <v>57.80291157847232</v>
+      </c>
+      <c r="D30">
+        <v>67.28691157847231</v>
+      </c>
+      <c r="E30">
+        <v>-14.116</v>
+      </c>
+      <c r="F30">
+        <v>20.384</v>
+      </c>
+      <c r="G30">
+        <v>10.9</v>
+      </c>
+      <c r="H30">
+        <v>38.3</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>10.4</v>
+      </c>
+      <c r="K30">
+        <v>2.98</v>
+      </c>
+      <c r="L30">
+        <v>7.42</v>
+      </c>
+      <c r="M30">
+        <v>0.3302208</v>
+      </c>
+      <c r="N30">
+        <v>7.0897792</v>
+      </c>
+      <c r="O30">
+        <v>1.914240384</v>
+      </c>
+      <c r="P30">
+        <v>5.175538816</v>
+      </c>
+      <c r="Q30">
+        <v>8.155538816</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.08032665760198528</v>
+      </c>
+      <c r="T30">
+        <v>1.314941342675594</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.27</v>
+      </c>
+      <c r="W30">
+        <v>0.011826</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>22.4698141364808</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.0610223654267199</v>
+      </c>
+      <c r="C31">
+        <v>57.23636682314689</v>
+      </c>
+      <c r="D31">
+        <v>67.44836682314688</v>
+      </c>
+      <c r="E31">
+        <v>-13.388</v>
+      </c>
+      <c r="F31">
+        <v>21.112</v>
+      </c>
+      <c r="G31">
+        <v>10.9</v>
+      </c>
+      <c r="H31">
+        <v>38.3</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>10.4</v>
+      </c>
+      <c r="K31">
+        <v>2.98</v>
+      </c>
+      <c r="L31">
+        <v>7.42</v>
+      </c>
+      <c r="M31">
+        <v>0.3420143999999999</v>
+      </c>
+      <c r="N31">
+        <v>7.0779856</v>
+      </c>
+      <c r="O31">
+        <v>1.911056112</v>
+      </c>
+      <c r="P31">
+        <v>5.166929488</v>
+      </c>
+      <c r="Q31">
+        <v>8.146929488000001</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.08111665553059141</v>
+      </c>
+      <c r="T31">
+        <v>1.329566850506378</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.27</v>
+      </c>
+      <c r="W31">
+        <v>0.011826</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>21.69499295936078</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.06089825738001041</v>
+      </c>
+      <c r="C32">
+        <v>56.67059875665032</v>
+      </c>
+      <c r="D32">
+        <v>67.61059875665032</v>
+      </c>
+      <c r="E32">
+        <v>-12.66</v>
+      </c>
+      <c r="F32">
+        <v>21.84</v>
+      </c>
+      <c r="G32">
+        <v>10.9</v>
+      </c>
+      <c r="H32">
+        <v>38.3</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>10.4</v>
+      </c>
+      <c r="K32">
+        <v>2.98</v>
+      </c>
+      <c r="L32">
+        <v>7.42</v>
+      </c>
+      <c r="M32">
+        <v>0.353808</v>
+      </c>
+      <c r="N32">
+        <v>7.066192</v>
+      </c>
+      <c r="O32">
+        <v>1.90787184</v>
+      </c>
+      <c r="P32">
+        <v>5.15832016</v>
+      </c>
+      <c r="Q32">
+        <v>8.138320159999999</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.08192922482858631</v>
+      </c>
+      <c r="T32">
+        <v>1.344610229989471</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.27</v>
+      </c>
+      <c r="W32">
+        <v>0.011826</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>20.97182652738208</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.06077414933330091</v>
+      </c>
+      <c r="C33">
+        <v>56.1056129969482</v>
+      </c>
+      <c r="D33">
+        <v>67.77361299694819</v>
+      </c>
+      <c r="E33">
+        <v>-11.932</v>
+      </c>
+      <c r="F33">
+        <v>22.568</v>
+      </c>
+      <c r="G33">
+        <v>10.9</v>
+      </c>
+      <c r="H33">
+        <v>38.3</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>10.4</v>
+      </c>
+      <c r="K33">
+        <v>2.98</v>
+      </c>
+      <c r="L33">
+        <v>7.42</v>
+      </c>
+      <c r="M33">
+        <v>0.3656016</v>
+      </c>
+      <c r="N33">
+        <v>7.0543984</v>
+      </c>
+      <c r="O33">
+        <v>1.904687568</v>
+      </c>
+      <c r="P33">
+        <v>5.149710832</v>
+      </c>
+      <c r="Q33">
+        <v>8.129710832000001</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.0827653468598564</v>
+      </c>
+      <c r="T33">
+        <v>1.360089649457581</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.27</v>
+      </c>
+      <c r="W33">
+        <v>0.011826</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>20.29531599424073</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.06065004128659141</v>
+      </c>
+      <c r="C34">
+        <v>55.54141521631843</v>
+      </c>
+      <c r="D34">
+        <v>67.93741521631843</v>
+      </c>
+      <c r="E34">
+        <v>-11.204</v>
+      </c>
+      <c r="F34">
+        <v>23.296</v>
+      </c>
+      <c r="G34">
+        <v>10.9</v>
+      </c>
+      <c r="H34">
+        <v>38.3</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>10.4</v>
+      </c>
+      <c r="K34">
+        <v>2.98</v>
+      </c>
+      <c r="L34">
+        <v>7.42</v>
+      </c>
+      <c r="M34">
+        <v>0.3773952</v>
+      </c>
+      <c r="N34">
+        <v>7.0426048</v>
+      </c>
+      <c r="O34">
+        <v>1.901503296</v>
+      </c>
+      <c r="P34">
+        <v>5.141101504</v>
+      </c>
+      <c r="Q34">
+        <v>8.121101504</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.0836260607155756</v>
+      </c>
+      <c r="T34">
+        <v>1.37602434596887</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.27</v>
+      </c>
+      <c r="W34">
+        <v>0.011826</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>19.66108736942071</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.06052593323988191</v>
+      </c>
+      <c r="C35">
+        <v>54.97801114200915</v>
+      </c>
+      <c r="D35">
+        <v>68.10201114200915</v>
+      </c>
+      <c r="E35">
+        <v>-10.476</v>
+      </c>
+      <c r="F35">
+        <v>24.024</v>
+      </c>
+      <c r="G35">
+        <v>10.9</v>
+      </c>
+      <c r="H35">
+        <v>38.3</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>10.4</v>
+      </c>
+      <c r="K35">
+        <v>2.98</v>
+      </c>
+      <c r="L35">
+        <v>7.42</v>
+      </c>
+      <c r="M35">
+        <v>0.3891888</v>
+      </c>
+      <c r="N35">
+        <v>7.0308112</v>
+      </c>
+      <c r="O35">
+        <v>1.898319024</v>
+      </c>
+      <c r="P35">
+        <v>5.132492176</v>
+      </c>
+      <c r="Q35">
+        <v>8.112492176</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.08451246752221181</v>
+      </c>
+      <c r="T35">
+        <v>1.392434705062586</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.27</v>
+      </c>
+      <c r="W35">
+        <v>0.011826</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>19.06529684307462</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.0604018251931724</v>
+      </c>
+      <c r="C36">
+        <v>54.41540655690626</v>
+      </c>
+      <c r="D36">
+        <v>68.26740655690625</v>
+      </c>
+      <c r="E36">
+        <v>-9.747999999999998</v>
+      </c>
+      <c r="F36">
+        <v>24.752</v>
+      </c>
+      <c r="G36">
+        <v>10.9</v>
+      </c>
+      <c r="H36">
+        <v>38.3</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>10.4</v>
+      </c>
+      <c r="K36">
+        <v>2.98</v>
+      </c>
+      <c r="L36">
+        <v>7.42</v>
+      </c>
+      <c r="M36">
+        <v>0.4009824</v>
+      </c>
+      <c r="N36">
+        <v>7.0190176</v>
+      </c>
+      <c r="O36">
+        <v>1.895134752</v>
+      </c>
+      <c r="P36">
+        <v>5.123882847999999</v>
+      </c>
+      <c r="Q36">
+        <v>8.103882848</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.08542573514117031</v>
+      </c>
+      <c r="T36">
+        <v>1.409342347765203</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.27</v>
+      </c>
+      <c r="W36">
+        <v>0.011826</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>18.50455281827831</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.06027771714646291</v>
+      </c>
+      <c r="C37">
+        <v>53.8536073002106</v>
+      </c>
+      <c r="D37">
+        <v>68.4336073002106</v>
+      </c>
+      <c r="E37">
+        <v>-9.02</v>
+      </c>
+      <c r="F37">
+        <v>25.48</v>
+      </c>
+      <c r="G37">
+        <v>10.9</v>
+      </c>
+      <c r="H37">
+        <v>38.3</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>10.4</v>
+      </c>
+      <c r="K37">
+        <v>2.98</v>
+      </c>
+      <c r="L37">
+        <v>7.42</v>
+      </c>
+      <c r="M37">
+        <v>0.412776</v>
+      </c>
+      <c r="N37">
+        <v>7.007224</v>
+      </c>
+      <c r="O37">
+        <v>1.89195048</v>
+      </c>
+      <c r="P37">
+        <v>5.11527352</v>
+      </c>
+      <c r="Q37">
+        <v>8.095273519999999</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.08636710330225064</v>
+      </c>
+      <c r="T37">
+        <v>1.4267702256279</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.27</v>
+      </c>
+      <c r="W37">
+        <v>0.011826</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>17.97585130918464</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.06015360909975342</v>
+      </c>
+      <c r="C38">
+        <v>53.29261926812526</v>
+      </c>
+      <c r="D38">
+        <v>68.60061926812526</v>
+      </c>
+      <c r="E38">
+        <v>-8.292000000000002</v>
+      </c>
+      <c r="F38">
+        <v>26.208</v>
+      </c>
+      <c r="G38">
+        <v>10.9</v>
+      </c>
+      <c r="H38">
+        <v>38.3</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>10.4</v>
+      </c>
+      <c r="K38">
+        <v>2.98</v>
+      </c>
+      <c r="L38">
+        <v>7.42</v>
+      </c>
+      <c r="M38">
+        <v>0.4245695999999999</v>
+      </c>
+      <c r="N38">
+        <v>6.9954304</v>
+      </c>
+      <c r="O38">
+        <v>1.888766208</v>
+      </c>
+      <c r="P38">
+        <v>5.106664192</v>
+      </c>
+      <c r="Q38">
+        <v>8.086664192000001</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.08733788921836472</v>
+      </c>
+      <c r="T38">
+        <v>1.444742724673806</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.27</v>
+      </c>
+      <c r="W38">
+        <v>0.011826</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>17.47652210615174</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.06002950105304392</v>
+      </c>
+      <c r="C39">
+        <v>52.73244841455286</v>
+      </c>
+      <c r="D39">
+        <v>68.76844841455285</v>
+      </c>
+      <c r="E39">
+        <v>-7.564</v>
+      </c>
+      <c r="F39">
+        <v>26.936</v>
+      </c>
+      <c r="G39">
+        <v>10.9</v>
+      </c>
+      <c r="H39">
+        <v>38.3</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>10.4</v>
+      </c>
+      <c r="K39">
+        <v>2.98</v>
+      </c>
+      <c r="L39">
+        <v>7.42</v>
+      </c>
+      <c r="M39">
+        <v>0.4363632</v>
+      </c>
+      <c r="N39">
+        <v>6.9836368</v>
+      </c>
+      <c r="O39">
+        <v>1.885581936</v>
+      </c>
+      <c r="P39">
+        <v>5.098054864</v>
+      </c>
+      <c r="Q39">
+        <v>8.078054864</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.08833949373499035</v>
+      </c>
+      <c r="T39">
+        <v>1.46328577924498</v>
+      </c>
+      <c r="U39">
+        <v>0.0162</v>
+      </c>
+      <c r="V39">
+        <v>0.27</v>
+      </c>
+      <c r="W39">
+        <v>0.011826</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>17.00418367085034</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.05990539300633442</v>
+      </c>
+      <c r="C40">
+        <v>52.17310075180283</v>
+      </c>
+      <c r="D40">
+        <v>68.93710075180283</v>
+      </c>
+      <c r="E40">
+        <v>-6.836000000000002</v>
+      </c>
+      <c r="F40">
+        <v>27.664</v>
+      </c>
+      <c r="G40">
+        <v>10.9</v>
+      </c>
+      <c r="H40">
+        <v>38.3</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>10.4</v>
+      </c>
+      <c r="K40">
+        <v>2.98</v>
+      </c>
+      <c r="L40">
+        <v>7.42</v>
+      </c>
+      <c r="M40">
+        <v>0.4481568</v>
+      </c>
+      <c r="N40">
+        <v>6.9718432</v>
+      </c>
+      <c r="O40">
+        <v>1.882397664</v>
+      </c>
+      <c r="P40">
+        <v>5.089445536</v>
+      </c>
+      <c r="Q40">
+        <v>8.069445536</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.08937340807473294</v>
+      </c>
+      <c r="T40">
+        <v>1.482426996866836</v>
+      </c>
+      <c r="U40">
+        <v>0.0162</v>
+      </c>
+      <c r="V40">
+        <v>0.27</v>
+      </c>
+      <c r="W40">
+        <v>0.011826</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>16.55670515319638</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.05978128495962493</v>
+      </c>
+      <c r="C41">
+        <v>51.61458235130976</v>
+      </c>
+      <c r="D41">
+        <v>69.10658235130975</v>
+      </c>
+      <c r="E41">
+        <v>-6.108000000000001</v>
+      </c>
+      <c r="F41">
+        <v>28.392</v>
+      </c>
+      <c r="G41">
+        <v>10.9</v>
+      </c>
+      <c r="H41">
+        <v>38.3</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>10.4</v>
+      </c>
+      <c r="K41">
+        <v>2.98</v>
+      </c>
+      <c r="L41">
+        <v>7.42</v>
+      </c>
+      <c r="M41">
+        <v>0.4599504</v>
+      </c>
+      <c r="N41">
+        <v>6.9600496</v>
+      </c>
+      <c r="O41">
+        <v>1.879213392</v>
+      </c>
+      <c r="P41">
+        <v>5.080836207999999</v>
+      </c>
+      <c r="Q41">
+        <v>8.060836208</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.09044122124528677</v>
+      </c>
+      <c r="T41">
+        <v>1.502195795394327</v>
+      </c>
+      <c r="U41">
+        <v>0.0162</v>
+      </c>
+      <c r="V41">
+        <v>0.27</v>
+      </c>
+      <c r="W41">
+        <v>0.011826</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>16.13217425183237</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.05965717691291544</v>
+      </c>
+      <c r="C42">
+        <v>51.05689934436164</v>
+      </c>
+      <c r="D42">
+        <v>69.27689934436164</v>
+      </c>
+      <c r="E42">
+        <v>-5.379999999999999</v>
+      </c>
+      <c r="F42">
+        <v>29.12</v>
+      </c>
+      <c r="G42">
+        <v>10.9</v>
+      </c>
+      <c r="H42">
+        <v>38.3</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>10.4</v>
+      </c>
+      <c r="K42">
+        <v>2.98</v>
+      </c>
+      <c r="L42">
+        <v>7.42</v>
+      </c>
+      <c r="M42">
+        <v>0.471744</v>
+      </c>
+      <c r="N42">
+        <v>6.948256</v>
+      </c>
+      <c r="O42">
+        <v>1.87602912</v>
+      </c>
+      <c r="P42">
+        <v>5.07222688</v>
+      </c>
+      <c r="Q42">
+        <v>8.052226879999999</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.0915446281881924</v>
+      </c>
+      <c r="T42">
+        <v>1.522623553872734</v>
+      </c>
+      <c r="U42">
+        <v>0.0162</v>
+      </c>
+      <c r="V42">
+        <v>0.27</v>
+      </c>
+      <c r="W42">
+        <v>0.011826</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>15.72886989553656</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.05953306886620593</v>
+      </c>
+      <c r="C43">
+        <v>50.5000579228395</v>
+      </c>
+      <c r="D43">
+        <v>69.4480579228395</v>
+      </c>
+      <c r="E43">
+        <v>-4.651999999999997</v>
+      </c>
+      <c r="F43">
+        <v>29.848</v>
+      </c>
+      <c r="G43">
+        <v>10.9</v>
+      </c>
+      <c r="H43">
+        <v>38.3</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>10.4</v>
+      </c>
+      <c r="K43">
+        <v>2.98</v>
+      </c>
+      <c r="L43">
+        <v>7.42</v>
+      </c>
+      <c r="M43">
+        <v>0.4835376</v>
+      </c>
+      <c r="N43">
+        <v>6.9364624</v>
+      </c>
+      <c r="O43">
+        <v>1.872844848</v>
+      </c>
+      <c r="P43">
+        <v>5.063617552</v>
+      </c>
+      <c r="Q43">
+        <v>8.043617552000001</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.09268543875628124</v>
+      </c>
+      <c r="T43">
+        <v>1.54374377874024</v>
+      </c>
+      <c r="U43">
+        <v>0.0162</v>
+      </c>
+      <c r="V43">
+        <v>0.27</v>
+      </c>
+      <c r="W43">
+        <v>0.011826</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>15.34523892247469</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.05940896081949643</v>
+      </c>
+      <c r="C44">
+        <v>49.94406433996755</v>
+      </c>
+      <c r="D44">
+        <v>69.62006433996754</v>
+      </c>
+      <c r="E44">
+        <v>-3.924000000000003</v>
+      </c>
+      <c r="F44">
+        <v>30.576</v>
+      </c>
+      <c r="G44">
+        <v>10.9</v>
+      </c>
+      <c r="H44">
+        <v>38.3</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>10.4</v>
+      </c>
+      <c r="K44">
+        <v>2.98</v>
+      </c>
+      <c r="L44">
+        <v>7.42</v>
+      </c>
+      <c r="M44">
+        <v>0.4953311999999999</v>
+      </c>
+      <c r="N44">
+        <v>6.9246688</v>
+      </c>
+      <c r="O44">
+        <v>1.869660576</v>
+      </c>
+      <c r="P44">
+        <v>5.055008224</v>
+      </c>
+      <c r="Q44">
+        <v>8.035008224</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.09386558761982143</v>
+      </c>
+      <c r="T44">
+        <v>1.565592287223867</v>
+      </c>
+      <c r="U44">
+        <v>0.0162</v>
+      </c>
+      <c r="V44">
+        <v>0.27</v>
+      </c>
+      <c r="W44">
+        <v>0.011826</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>14.9798760909872</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.05928485277278694</v>
+      </c>
+      <c r="C45">
+        <v>49.38892491107492</v>
+      </c>
+      <c r="D45">
+        <v>69.79292491107492</v>
+      </c>
+      <c r="E45">
+        <v>-3.196000000000002</v>
+      </c>
+      <c r="F45">
+        <v>31.304</v>
+      </c>
+      <c r="G45">
+        <v>10.9</v>
+      </c>
+      <c r="H45">
+        <v>38.3</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>10.4</v>
+      </c>
+      <c r="K45">
+        <v>2.98</v>
+      </c>
+      <c r="L45">
+        <v>7.42</v>
+      </c>
+      <c r="M45">
+        <v>0.5071247999999999</v>
+      </c>
+      <c r="N45">
+        <v>6.9128752</v>
+      </c>
+      <c r="O45">
+        <v>1.866476304</v>
+      </c>
+      <c r="P45">
+        <v>5.046398896</v>
+      </c>
+      <c r="Q45">
+        <v>8.026398896</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.09508714521541568</v>
+      </c>
+      <c r="T45">
+        <v>1.588207410040252</v>
+      </c>
+      <c r="U45">
+        <v>0.0162</v>
+      </c>
+      <c r="V45">
+        <v>0.27</v>
+      </c>
+      <c r="W45">
+        <v>0.011826</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>14.6315068795689</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.05916074472607745</v>
+      </c>
+      <c r="C46">
+        <v>48.83464601436856</v>
+      </c>
+      <c r="D46">
+        <v>69.96664601436855</v>
+      </c>
+      <c r="E46">
+        <v>-2.468000000000004</v>
+      </c>
+      <c r="F46">
+        <v>32.032</v>
+      </c>
+      <c r="G46">
+        <v>10.9</v>
+      </c>
+      <c r="H46">
+        <v>38.3</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>10.4</v>
+      </c>
+      <c r="K46">
+        <v>2.98</v>
+      </c>
+      <c r="L46">
+        <v>7.42</v>
+      </c>
+      <c r="M46">
+        <v>0.5189183999999999</v>
+      </c>
+      <c r="N46">
+        <v>6.9010816</v>
+      </c>
+      <c r="O46">
+        <v>1.863292032</v>
+      </c>
+      <c r="P46">
+        <v>5.037789568</v>
+      </c>
+      <c r="Q46">
+        <v>8.017789568000001</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.09635232986799543</v>
+      </c>
+      <c r="T46">
+        <v>1.611630215814366</v>
+      </c>
+      <c r="U46">
+        <v>0.0162</v>
+      </c>
+      <c r="V46">
+        <v>0.27</v>
+      </c>
+      <c r="W46">
+        <v>0.011826</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>14.29897263230597</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.05903663667936794</v>
+      </c>
+      <c r="C47">
+        <v>48.2812340917176</v>
+      </c>
+      <c r="D47">
+        <v>70.14123409171759</v>
+      </c>
+      <c r="E47">
+        <v>-1.740000000000002</v>
+      </c>
+      <c r="F47">
+        <v>32.76</v>
+      </c>
+      <c r="G47">
+        <v>10.9</v>
+      </c>
+      <c r="H47">
+        <v>38.3</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>10.4</v>
+      </c>
+      <c r="K47">
+        <v>2.98</v>
+      </c>
+      <c r="L47">
+        <v>7.42</v>
+      </c>
+      <c r="M47">
+        <v>0.530712</v>
+      </c>
+      <c r="N47">
+        <v>6.889288</v>
+      </c>
+      <c r="O47">
+        <v>1.86010776</v>
+      </c>
+      <c r="P47">
+        <v>5.02918024</v>
+      </c>
+      <c r="Q47">
+        <v>8.009180239999999</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.09766352123521443</v>
+      </c>
+      <c r="T47">
+        <v>1.635904759980265</v>
+      </c>
+      <c r="U47">
+        <v>0.0162</v>
+      </c>
+      <c r="V47">
+        <v>0.27</v>
+      </c>
+      <c r="W47">
+        <v>0.011826</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>13.98121768492139</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.05944980863265845</v>
+      </c>
+      <c r="C48">
+        <v>46.97535769525595</v>
+      </c>
+      <c r="D48">
+        <v>69.56335769525595</v>
+      </c>
+      <c r="E48">
+        <v>-1.012</v>
+      </c>
+      <c r="F48">
+        <v>33.488</v>
+      </c>
+      <c r="G48">
+        <v>10.9</v>
+      </c>
+      <c r="H48">
+        <v>38.3</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>10.4</v>
+      </c>
+      <c r="K48">
+        <v>2.98</v>
+      </c>
+      <c r="L48">
+        <v>7.42</v>
+      </c>
+      <c r="M48">
+        <v>0.5960864</v>
+      </c>
+      <c r="N48">
+        <v>6.8239136</v>
+      </c>
+      <c r="O48">
+        <v>1.842456672</v>
+      </c>
+      <c r="P48">
+        <v>4.981456928</v>
+      </c>
+      <c r="Q48">
+        <v>7.961456928</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.09902327524566379</v>
+      </c>
+      <c r="T48">
+        <v>1.661078361337495</v>
+      </c>
+      <c r="U48">
+        <v>0.0178</v>
+      </c>
+      <c r="V48">
+        <v>0.27</v>
+      </c>
+      <c r="W48">
+        <v>0.012994</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>12.44785990755702</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.05933738058594895</v>
+      </c>
+      <c r="C49">
+        <v>46.40365829166303</v>
+      </c>
+      <c r="D49">
+        <v>69.71965829166302</v>
+      </c>
+      <c r="E49">
+        <v>-0.2839999999999989</v>
+      </c>
+      <c r="F49">
+        <v>34.216</v>
+      </c>
+      <c r="G49">
+        <v>10.9</v>
+      </c>
+      <c r="H49">
+        <v>38.3</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>10.4</v>
+      </c>
+      <c r="K49">
+        <v>2.98</v>
+      </c>
+      <c r="L49">
+        <v>7.42</v>
+      </c>
+      <c r="M49">
+        <v>0.6090448000000001</v>
+      </c>
+      <c r="N49">
+        <v>6.8109552</v>
+      </c>
+      <c r="O49">
+        <v>1.838957904</v>
+      </c>
+      <c r="P49">
+        <v>4.971997296</v>
+      </c>
+      <c r="Q49">
+        <v>7.951997296</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1004343407282056</v>
+      </c>
+      <c r="T49">
+        <v>1.687201909915751</v>
+      </c>
+      <c r="U49">
+        <v>0.0178</v>
+      </c>
+      <c r="V49">
+        <v>0.27</v>
+      </c>
+      <c r="W49">
+        <v>0.012994</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>12.18301182441751</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.05922495253923945</v>
+      </c>
+      <c r="C50">
+        <v>45.83266284750763</v>
+      </c>
+      <c r="D50">
+        <v>69.87666284750762</v>
+      </c>
+      <c r="E50">
+        <v>0.4439999999999955</v>
+      </c>
+      <c r="F50">
+        <v>34.944</v>
+      </c>
+      <c r="G50">
+        <v>10.9</v>
+      </c>
+      <c r="H50">
+        <v>38.3</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>10.4</v>
+      </c>
+      <c r="K50">
+        <v>2.98</v>
+      </c>
+      <c r="L50">
+        <v>7.42</v>
+      </c>
+      <c r="M50">
+        <v>0.6220031999999999</v>
+      </c>
+      <c r="N50">
+        <v>6.7979968</v>
+      </c>
+      <c r="O50">
+        <v>1.835459136</v>
+      </c>
+      <c r="P50">
+        <v>4.962537664</v>
+      </c>
+      <c r="Q50">
+        <v>7.942537664</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1018996779600759</v>
+      </c>
+      <c r="T50">
+        <v>1.714330210362402</v>
+      </c>
+      <c r="U50">
+        <v>0.0178</v>
+      </c>
+      <c r="V50">
+        <v>0.27</v>
+      </c>
+      <c r="W50">
+        <v>0.012994</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>11.92919907807548</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.05911252449252995</v>
+      </c>
+      <c r="C51">
+        <v>45.26237612934906</v>
+      </c>
+      <c r="D51">
+        <v>70.03437612934906</v>
+      </c>
+      <c r="E51">
+        <v>1.171999999999997</v>
+      </c>
+      <c r="F51">
+        <v>35.672</v>
+      </c>
+      <c r="G51">
+        <v>10.9</v>
+      </c>
+      <c r="H51">
+        <v>38.3</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>10.4</v>
+      </c>
+      <c r="K51">
+        <v>2.98</v>
+      </c>
+      <c r="L51">
+        <v>7.42</v>
+      </c>
+      <c r="M51">
+        <v>0.6349615999999999</v>
+      </c>
+      <c r="N51">
+        <v>6.7850384</v>
+      </c>
+      <c r="O51">
+        <v>1.831960368</v>
+      </c>
+      <c r="P51">
+        <v>4.953078032000001</v>
+      </c>
+      <c r="Q51">
+        <v>7.933078032000001</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1034224793971175</v>
+      </c>
+      <c r="T51">
+        <v>1.74252236572853</v>
+      </c>
+      <c r="U51">
+        <v>0.0178</v>
+      </c>
+      <c r="V51">
+        <v>0.27</v>
+      </c>
+      <c r="W51">
+        <v>0.012994</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>11.68574603566578</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.05900009644582046</v>
+      </c>
+      <c r="C52">
+        <v>44.69280294687695</v>
+      </c>
+      <c r="D52">
+        <v>70.19280294687694</v>
+      </c>
+      <c r="E52">
+        <v>1.899999999999999</v>
+      </c>
+      <c r="F52">
+        <v>36.4</v>
+      </c>
+      <c r="G52">
+        <v>10.9</v>
+      </c>
+      <c r="H52">
+        <v>38.3</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>10.4</v>
+      </c>
+      <c r="K52">
+        <v>2.98</v>
+      </c>
+      <c r="L52">
+        <v>7.42</v>
+      </c>
+      <c r="M52">
+        <v>0.6479199999999999</v>
+      </c>
+      <c r="N52">
+        <v>6.77208</v>
+      </c>
+      <c r="O52">
+        <v>1.8284616</v>
+      </c>
+      <c r="P52">
+        <v>4.9436184</v>
+      </c>
+      <c r="Q52">
+        <v>7.923618400000001</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1050061928916409</v>
+      </c>
+      <c r="T52">
+        <v>1.771842207309303</v>
+      </c>
+      <c r="U52">
+        <v>0.0178</v>
+      </c>
+      <c r="V52">
+        <v>0.27</v>
+      </c>
+      <c r="W52">
+        <v>0.012994</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>11.45203111495246</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.05888766839911096</v>
+      </c>
+      <c r="C53">
+        <v>44.12394815340018</v>
+      </c>
+      <c r="D53">
+        <v>70.35194815340017</v>
+      </c>
+      <c r="E53">
+        <v>2.628</v>
+      </c>
+      <c r="F53">
+        <v>37.128</v>
+      </c>
+      <c r="G53">
+        <v>10.9</v>
+      </c>
+      <c r="H53">
+        <v>38.3</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>10.4</v>
+      </c>
+      <c r="K53">
+        <v>2.98</v>
+      </c>
+      <c r="L53">
+        <v>7.42</v>
+      </c>
+      <c r="M53">
+        <v>0.6608784</v>
+      </c>
+      <c r="N53">
+        <v>6.7591216</v>
+      </c>
+      <c r="O53">
+        <v>1.824962832</v>
+      </c>
+      <c r="P53">
+        <v>4.934158768</v>
+      </c>
+      <c r="Q53">
+        <v>7.914158768</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1066545477532877</v>
+      </c>
+      <c r="T53">
+        <v>1.802358777117862</v>
+      </c>
+      <c r="U53">
+        <v>0.0178</v>
+      </c>
+      <c r="V53">
+        <v>0.27</v>
+      </c>
+      <c r="W53">
+        <v>0.012994</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>11.22748148524751</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.05877524035240146</v>
+      </c>
+      <c r="C54">
+        <v>43.55581664634244</v>
+      </c>
+      <c r="D54">
+        <v>70.51181664634244</v>
+      </c>
+      <c r="E54">
+        <v>3.356000000000002</v>
+      </c>
+      <c r="F54">
+        <v>37.856</v>
+      </c>
+      <c r="G54">
+        <v>10.9</v>
+      </c>
+      <c r="H54">
+        <v>38.3</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>10.4</v>
+      </c>
+      <c r="K54">
+        <v>2.98</v>
+      </c>
+      <c r="L54">
+        <v>7.42</v>
+      </c>
+      <c r="M54">
+        <v>0.6738368</v>
+      </c>
+      <c r="N54">
+        <v>6.7461632</v>
+      </c>
+      <c r="O54">
+        <v>1.821464064</v>
+      </c>
+      <c r="P54">
+        <v>4.924699135999999</v>
+      </c>
+      <c r="Q54">
+        <v>7.904699136</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1083715840675031</v>
+      </c>
+      <c r="T54">
+        <v>1.834146870668445</v>
+      </c>
+      <c r="U54">
+        <v>0.0178</v>
+      </c>
+      <c r="V54">
+        <v>0.27</v>
+      </c>
+      <c r="W54">
+        <v>0.012994</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>11.01156837976198</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.05866281230569197</v>
+      </c>
+      <c r="C55">
+        <v>42.98841336774464</v>
+      </c>
+      <c r="D55">
+        <v>70.67241336774464</v>
+      </c>
+      <c r="E55">
+        <v>4.084000000000003</v>
+      </c>
+      <c r="F55">
+        <v>38.584</v>
+      </c>
+      <c r="G55">
+        <v>10.9</v>
+      </c>
+      <c r="H55">
+        <v>38.3</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>10.4</v>
+      </c>
+      <c r="K55">
+        <v>2.98</v>
+      </c>
+      <c r="L55">
+        <v>7.42</v>
+      </c>
+      <c r="M55">
+        <v>0.6867952000000001</v>
+      </c>
+      <c r="N55">
+        <v>6.7332048</v>
+      </c>
+      <c r="O55">
+        <v>1.817965296</v>
+      </c>
+      <c r="P55">
+        <v>4.915239504000001</v>
+      </c>
+      <c r="Q55">
+        <v>7.895239504000001</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1101616857567914</v>
+      </c>
+      <c r="T55">
+        <v>1.867287649050968</v>
+      </c>
+      <c r="U55">
+        <v>0.0178</v>
+      </c>
+      <c r="V55">
+        <v>0.27</v>
+      </c>
+      <c r="W55">
+        <v>0.012994</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>10.8038029386344</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.05941762425898246</v>
+      </c>
+      <c r="C56">
+        <v>41.19602966706874</v>
+      </c>
+      <c r="D56">
+        <v>69.60802966706873</v>
+      </c>
+      <c r="E56">
+        <v>4.811999999999998</v>
+      </c>
+      <c r="F56">
+        <v>39.312</v>
+      </c>
+      <c r="G56">
+        <v>10.9</v>
+      </c>
+      <c r="H56">
+        <v>38.3</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>10.4</v>
+      </c>
+      <c r="K56">
+        <v>2.98</v>
+      </c>
+      <c r="L56">
+        <v>7.42</v>
+      </c>
+      <c r="M56">
+        <v>0.7862399999999998</v>
+      </c>
+      <c r="N56">
+        <v>6.633760000000001</v>
+      </c>
+      <c r="O56">
+        <v>1.7911152</v>
+      </c>
+      <c r="P56">
+        <v>4.8426448</v>
+      </c>
+      <c r="Q56">
+        <v>7.822644800000001</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1120296179543097</v>
+      </c>
+      <c r="T56">
+        <v>1.901869330841426</v>
+      </c>
+      <c r="U56">
+        <v>0.02</v>
+      </c>
+      <c r="V56">
+        <v>0.27</v>
+      </c>
+      <c r="W56">
+        <v>0.0146</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>9.43732193732194</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.05932125621227297</v>
+      </c>
+      <c r="C57">
+        <v>40.60213245380894</v>
+      </c>
+      <c r="D57">
+        <v>69.74213245380894</v>
+      </c>
+      <c r="E57">
+        <v>5.539999999999999</v>
+      </c>
+      <c r="F57">
+        <v>40.04</v>
+      </c>
+      <c r="G57">
+        <v>10.9</v>
+      </c>
+      <c r="H57">
+        <v>38.3</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>10.4</v>
+      </c>
+      <c r="K57">
+        <v>2.98</v>
+      </c>
+      <c r="L57">
+        <v>7.42</v>
+      </c>
+      <c r="M57">
+        <v>0.8007999999999998</v>
+      </c>
+      <c r="N57">
+        <v>6.6192</v>
+      </c>
+      <c r="O57">
+        <v>1.787184</v>
+      </c>
+      <c r="P57">
+        <v>4.832016</v>
+      </c>
+      <c r="Q57">
+        <v>7.812016000000001</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1139805693606066</v>
+      </c>
+      <c r="T57">
+        <v>1.937987976267016</v>
+      </c>
+      <c r="U57">
+        <v>0.02</v>
+      </c>
+      <c r="V57">
+        <v>0.27</v>
+      </c>
+      <c r="W57">
+        <v>0.0146</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>9.265734265734267</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.05922488816556347</v>
+      </c>
+      <c r="C58">
+        <v>40.00875294721176</v>
+      </c>
+      <c r="D58">
+        <v>69.87675294721176</v>
+      </c>
+      <c r="E58">
+        <v>6.268000000000001</v>
+      </c>
+      <c r="F58">
+        <v>40.768</v>
+      </c>
+      <c r="G58">
+        <v>10.9</v>
+      </c>
+      <c r="H58">
+        <v>38.3</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>10.4</v>
+      </c>
+      <c r="K58">
+        <v>2.98</v>
+      </c>
+      <c r="L58">
+        <v>7.42</v>
+      </c>
+      <c r="M58">
+        <v>0.8153599999999999</v>
+      </c>
+      <c r="N58">
+        <v>6.60464</v>
+      </c>
+      <c r="O58">
+        <v>1.7832528</v>
+      </c>
+      <c r="P58">
+        <v>4.8213872</v>
+      </c>
+      <c r="Q58">
+        <v>7.801387200000001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1160202003762806</v>
+      </c>
+      <c r="T58">
+        <v>1.975748378302859</v>
+      </c>
+      <c r="U58">
+        <v>0.02</v>
+      </c>
+      <c r="V58">
+        <v>0.27</v>
+      </c>
+      <c r="W58">
+        <v>0.0146</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>9.100274725274726</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.05912852011885397</v>
+      </c>
+      <c r="C59">
+        <v>39.41589415100153</v>
+      </c>
+      <c r="D59">
+        <v>70.01189415100153</v>
+      </c>
+      <c r="E59">
+        <v>6.996000000000002</v>
+      </c>
+      <c r="F59">
+        <v>41.496</v>
+      </c>
+      <c r="G59">
+        <v>10.9</v>
+      </c>
+      <c r="H59">
+        <v>38.3</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>10.4</v>
+      </c>
+      <c r="K59">
+        <v>2.98</v>
+      </c>
+      <c r="L59">
+        <v>7.42</v>
+      </c>
+      <c r="M59">
+        <v>0.8299199999999999</v>
+      </c>
+      <c r="N59">
+        <v>6.59008</v>
+      </c>
+      <c r="O59">
+        <v>1.7793216</v>
+      </c>
+      <c r="P59">
+        <v>4.8107584</v>
+      </c>
+      <c r="Q59">
+        <v>7.790758400000001</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1181546979508232</v>
+      </c>
+      <c r="T59">
+        <v>2.015265078107812</v>
+      </c>
+      <c r="U59">
+        <v>0.02</v>
+      </c>
+      <c r="V59">
+        <v>0.27</v>
+      </c>
+      <c r="W59">
+        <v>0.0146</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>8.940620782726047</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.05903215207214447</v>
+      </c>
+      <c r="C60">
+        <v>38.8235590921844</v>
+      </c>
+      <c r="D60">
+        <v>70.14755909218439</v>
+      </c>
+      <c r="E60">
+        <v>7.723999999999997</v>
+      </c>
+      <c r="F60">
+        <v>42.224</v>
+      </c>
+      <c r="G60">
+        <v>10.9</v>
+      </c>
+      <c r="H60">
+        <v>38.3</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>10.4</v>
+      </c>
+      <c r="K60">
+        <v>2.98</v>
+      </c>
+      <c r="L60">
+        <v>7.42</v>
+      </c>
+      <c r="M60">
+        <v>0.8444799999999998</v>
+      </c>
+      <c r="N60">
+        <v>6.57552</v>
+      </c>
+      <c r="O60">
+        <v>1.7753904</v>
+      </c>
+      <c r="P60">
+        <v>4.8001296</v>
+      </c>
+      <c r="Q60">
+        <v>7.7801296</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1203908382670106</v>
+      </c>
+      <c r="T60">
+        <v>2.056663525522524</v>
+      </c>
+      <c r="U60">
+        <v>0.02</v>
+      </c>
+      <c r="V60">
+        <v>0.27</v>
+      </c>
+      <c r="W60">
+        <v>0.0146</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>8.786472148541115</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.05893578402543498</v>
+      </c>
+      <c r="C61">
+        <v>38.23175082127422</v>
+      </c>
+      <c r="D61">
+        <v>70.28375082127421</v>
+      </c>
+      <c r="E61">
+        <v>8.451999999999998</v>
+      </c>
+      <c r="F61">
+        <v>42.952</v>
+      </c>
+      <c r="G61">
+        <v>10.9</v>
+      </c>
+      <c r="H61">
+        <v>38.3</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>10.4</v>
+      </c>
+      <c r="K61">
+        <v>2.98</v>
+      </c>
+      <c r="L61">
+        <v>7.42</v>
+      </c>
+      <c r="M61">
+        <v>0.8590399999999998</v>
+      </c>
+      <c r="N61">
+        <v>6.56096</v>
+      </c>
+      <c r="O61">
+        <v>1.7714592</v>
+      </c>
+      <c r="P61">
+        <v>4.7895008</v>
+      </c>
+      <c r="Q61">
+        <v>7.7695008</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1227360585986219</v>
+      </c>
+      <c r="T61">
+        <v>2.100081409396491</v>
+      </c>
+      <c r="U61">
+        <v>0.02</v>
+      </c>
+      <c r="V61">
+        <v>0.27</v>
+      </c>
+      <c r="W61">
+        <v>0.0146</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>8.637548891786182</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.05883941597872548</v>
+      </c>
+      <c r="C62">
+        <v>37.6404724125213</v>
+      </c>
+      <c r="D62">
+        <v>70.42047241252129</v>
+      </c>
+      <c r="E62">
+        <v>9.18</v>
+      </c>
+      <c r="F62">
+        <v>43.68</v>
+      </c>
+      <c r="G62">
+        <v>10.9</v>
+      </c>
+      <c r="H62">
+        <v>38.3</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>10.4</v>
+      </c>
+      <c r="K62">
+        <v>2.98</v>
+      </c>
+      <c r="L62">
+        <v>7.42</v>
+      </c>
+      <c r="M62">
+        <v>0.8735999999999998</v>
+      </c>
+      <c r="N62">
+        <v>6.5464</v>
+      </c>
+      <c r="O62">
+        <v>1.767528</v>
+      </c>
+      <c r="P62">
+        <v>4.778872</v>
+      </c>
+      <c r="Q62">
+        <v>7.758872</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1251985399468137</v>
+      </c>
+      <c r="T62">
+        <v>2.145670187464156</v>
+      </c>
+      <c r="U62">
+        <v>0.02</v>
+      </c>
+      <c r="V62">
+        <v>0.27</v>
+      </c>
+      <c r="W62">
+        <v>0.0146</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>8.493589743589745</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.05874304793201598</v>
+      </c>
+      <c r="C63">
+        <v>37.04972696414374</v>
+      </c>
+      <c r="D63">
+        <v>70.55772696414373</v>
+      </c>
+      <c r="E63">
+        <v>9.907999999999994</v>
+      </c>
+      <c r="F63">
+        <v>44.40799999999999</v>
+      </c>
+      <c r="G63">
+        <v>10.9</v>
+      </c>
+      <c r="H63">
+        <v>38.3</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>10.4</v>
+      </c>
+      <c r="K63">
+        <v>2.98</v>
+      </c>
+      <c r="L63">
+        <v>7.42</v>
+      </c>
+      <c r="M63">
+        <v>0.8881599999999997</v>
+      </c>
+      <c r="N63">
+        <v>6.53184</v>
+      </c>
+      <c r="O63">
+        <v>1.7635968</v>
+      </c>
+      <c r="P63">
+        <v>4.7682432</v>
+      </c>
+      <c r="Q63">
+        <v>7.7482432</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1277873023897846</v>
+      </c>
+      <c r="T63">
+        <v>2.193596851586573</v>
+      </c>
+      <c r="U63">
+        <v>0.02</v>
+      </c>
+      <c r="V63">
+        <v>0.27</v>
+      </c>
+      <c r="W63">
+        <v>0.0146</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>8.354350567465325</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.05864667988530648</v>
+      </c>
+      <c r="C64">
+        <v>36.45951759856129</v>
+      </c>
+      <c r="D64">
+        <v>70.69551759856128</v>
+      </c>
+      <c r="E64">
+        <v>10.636</v>
+      </c>
+      <c r="F64">
+        <v>45.136</v>
+      </c>
+      <c r="G64">
+        <v>10.9</v>
+      </c>
+      <c r="H64">
+        <v>38.3</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>10.4</v>
+      </c>
+      <c r="K64">
+        <v>2.98</v>
+      </c>
+      <c r="L64">
+        <v>7.42</v>
+      </c>
+      <c r="M64">
+        <v>0.9027199999999997</v>
+      </c>
+      <c r="N64">
+        <v>6.51728</v>
+      </c>
+      <c r="O64">
+        <v>1.7596656</v>
+      </c>
+      <c r="P64">
+        <v>4.7576144</v>
+      </c>
+      <c r="Q64">
+        <v>7.737614400000001</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1305123154876486</v>
+      </c>
+      <c r="T64">
+        <v>2.244045971715433</v>
+      </c>
+      <c r="U64">
+        <v>0.02</v>
+      </c>
+      <c r="V64">
+        <v>0.27</v>
+      </c>
+      <c r="W64">
+        <v>0.0146</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>8.219602977667495</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.05855031183859698</v>
+      </c>
+      <c r="C65">
+        <v>35.86984746263236</v>
+      </c>
+      <c r="D65">
+        <v>70.83384746263235</v>
+      </c>
+      <c r="E65">
+        <v>11.364</v>
+      </c>
+      <c r="F65">
+        <v>45.864</v>
+      </c>
+      <c r="G65">
+        <v>10.9</v>
+      </c>
+      <c r="H65">
+        <v>38.3</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>10.4</v>
+      </c>
+      <c r="K65">
+        <v>2.98</v>
+      </c>
+      <c r="L65">
+        <v>7.42</v>
+      </c>
+      <c r="M65">
+        <v>0.9172799999999998</v>
+      </c>
+      <c r="N65">
+        <v>6.50272</v>
+      </c>
+      <c r="O65">
+        <v>1.7557344</v>
+      </c>
+      <c r="P65">
+        <v>4.7469856</v>
+      </c>
+      <c r="Q65">
+        <v>7.726985600000001</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1333846265908027</v>
+      </c>
+      <c r="T65">
+        <v>2.297222071310717</v>
+      </c>
+      <c r="U65">
+        <v>0.02</v>
+      </c>
+      <c r="V65">
+        <v>0.27</v>
+      </c>
+      <c r="W65">
+        <v>0.0146</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>8.089133089133091</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.05845394379188749</v>
+      </c>
+      <c r="C66">
+        <v>35.28071972789337</v>
+      </c>
+      <c r="D66">
+        <v>70.97271972789336</v>
+      </c>
+      <c r="E66">
+        <v>12.092</v>
+      </c>
+      <c r="F66">
+        <v>46.592</v>
+      </c>
+      <c r="G66">
+        <v>10.9</v>
+      </c>
+      <c r="H66">
+        <v>38.3</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>10.4</v>
+      </c>
+      <c r="K66">
+        <v>2.98</v>
+      </c>
+      <c r="L66">
+        <v>7.42</v>
+      </c>
+      <c r="M66">
+        <v>0.9318399999999998</v>
+      </c>
+      <c r="N66">
+        <v>6.488160000000001</v>
+      </c>
+      <c r="O66">
+        <v>1.7518032</v>
+      </c>
+      <c r="P66">
+        <v>4.7363568</v>
+      </c>
+      <c r="Q66">
+        <v>7.716356800000001</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1364165105330208</v>
+      </c>
+      <c r="T66">
+        <v>2.353352398661297</v>
+      </c>
+      <c r="U66">
+        <v>0.02</v>
+      </c>
+      <c r="V66">
+        <v>0.27</v>
+      </c>
+      <c r="W66">
+        <v>0.0146</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>7.962740384615387</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.058879525745178</v>
+      </c>
+      <c r="C67">
+        <v>33.94350234958727</v>
+      </c>
+      <c r="D67">
+        <v>70.36350234958726</v>
+      </c>
+      <c r="E67">
+        <v>12.82</v>
+      </c>
+      <c r="F67">
+        <v>47.32</v>
+      </c>
+      <c r="G67">
+        <v>10.9</v>
+      </c>
+      <c r="H67">
+        <v>38.3</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>10.4</v>
+      </c>
+      <c r="K67">
+        <v>2.98</v>
+      </c>
+      <c r="L67">
+        <v>7.42</v>
+      </c>
+      <c r="M67">
+        <v>0.998452</v>
+      </c>
+      <c r="N67">
+        <v>6.421548</v>
+      </c>
+      <c r="O67">
+        <v>1.73381796</v>
+      </c>
+      <c r="P67">
+        <v>4.68773004</v>
+      </c>
+      <c r="Q67">
+        <v>7.66773004</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1396216449862229</v>
+      </c>
+      <c r="T67">
+        <v>2.412690173289051</v>
+      </c>
+      <c r="U67">
+        <v>0.0211</v>
+      </c>
+      <c r="V67">
+        <v>0.27</v>
+      </c>
+      <c r="W67">
+        <v>0.015403</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>7.431503968142684</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.05879118769846849</v>
+      </c>
+      <c r="C68">
+        <v>33.34109590767831</v>
+      </c>
+      <c r="D68">
+        <v>70.4890959076783</v>
+      </c>
+      <c r="E68">
+        <v>13.548</v>
+      </c>
+      <c r="F68">
+        <v>48.048</v>
+      </c>
+      <c r="G68">
+        <v>10.9</v>
+      </c>
+      <c r="H68">
+        <v>38.3</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>10.4</v>
+      </c>
+      <c r="K68">
+        <v>2.98</v>
+      </c>
+      <c r="L68">
+        <v>7.42</v>
+      </c>
+      <c r="M68">
+        <v>1.0138128</v>
+      </c>
+      <c r="N68">
+        <v>6.4061872</v>
+      </c>
+      <c r="O68">
+        <v>1.729670544</v>
+      </c>
+      <c r="P68">
+        <v>4.676516656</v>
+      </c>
+      <c r="Q68">
+        <v>7.656516656</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1430153167602015</v>
+      </c>
+      <c r="T68">
+        <v>2.47551840524785</v>
+      </c>
+      <c r="U68">
+        <v>0.0211</v>
+      </c>
+      <c r="V68">
+        <v>0.27</v>
+      </c>
+      <c r="W68">
+        <v>0.015403</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>7.318905423170825</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.058702849651759</v>
+      </c>
+      <c r="C69">
+        <v>32.73913861757654</v>
+      </c>
+      <c r="D69">
+        <v>70.61513861757653</v>
+      </c>
+      <c r="E69">
+        <v>14.276</v>
+      </c>
+      <c r="F69">
+        <v>48.776</v>
+      </c>
+      <c r="G69">
+        <v>10.9</v>
+      </c>
+      <c r="H69">
+        <v>38.3</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>10.4</v>
+      </c>
+      <c r="K69">
+        <v>2.98</v>
+      </c>
+      <c r="L69">
+        <v>7.42</v>
+      </c>
+      <c r="M69">
+        <v>1.0291736</v>
+      </c>
+      <c r="N69">
+        <v>6.3908264</v>
+      </c>
+      <c r="O69">
+        <v>1.725523128</v>
+      </c>
+      <c r="P69">
+        <v>4.665303272</v>
+      </c>
+      <c r="Q69">
+        <v>7.645303272</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1466146656113909</v>
+      </c>
+      <c r="T69">
+        <v>2.542154408840515</v>
+      </c>
+      <c r="U69">
+        <v>0.0211</v>
+      </c>
+      <c r="V69">
+        <v>0.27</v>
+      </c>
+      <c r="W69">
+        <v>0.015403</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>7.209668028795142</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.0586145116050495</v>
+      </c>
+      <c r="C70">
+        <v>32.13763289300516</v>
+      </c>
+      <c r="D70">
+        <v>70.74163289300516</v>
+      </c>
+      <c r="E70">
+        <v>15.004</v>
+      </c>
+      <c r="F70">
+        <v>49.504</v>
+      </c>
+      <c r="G70">
+        <v>10.9</v>
+      </c>
+      <c r="H70">
+        <v>38.3</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>10.4</v>
+      </c>
+      <c r="K70">
+        <v>2.98</v>
+      </c>
+      <c r="L70">
+        <v>7.42</v>
+      </c>
+      <c r="M70">
+        <v>1.0445344</v>
+      </c>
+      <c r="N70">
+        <v>6.3754656</v>
+      </c>
+      <c r="O70">
+        <v>1.721375712</v>
+      </c>
+      <c r="P70">
+        <v>4.654089888</v>
+      </c>
+      <c r="Q70">
+        <v>7.634089888</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1504389737657797</v>
+      </c>
+      <c r="T70">
+        <v>2.612955162657722</v>
+      </c>
+      <c r="U70">
+        <v>0.0211</v>
+      </c>
+      <c r="V70">
+        <v>0.27</v>
+      </c>
+      <c r="W70">
+        <v>0.015403</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>7.103643498959919</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.05852617355834001</v>
+      </c>
+      <c r="C71">
+        <v>31.53658116501339</v>
+      </c>
+      <c r="D71">
+        <v>70.86858116501338</v>
+      </c>
+      <c r="E71">
+        <v>15.732</v>
+      </c>
+      <c r="F71">
+        <v>50.232</v>
+      </c>
+      <c r="G71">
+        <v>10.9</v>
+      </c>
+      <c r="H71">
+        <v>38.3</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>10.4</v>
+      </c>
+      <c r="K71">
+        <v>2.98</v>
+      </c>
+      <c r="L71">
+        <v>7.42</v>
+      </c>
+      <c r="M71">
+        <v>1.0598952</v>
+      </c>
+      <c r="N71">
+        <v>6.3601048</v>
+      </c>
+      <c r="O71">
+        <v>1.717228296</v>
+      </c>
+      <c r="P71">
+        <v>4.642876504</v>
+      </c>
+      <c r="Q71">
+        <v>7.622876504000001</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1545100114785162</v>
+      </c>
+      <c r="T71">
+        <v>2.688323707043781</v>
+      </c>
+      <c r="U71">
+        <v>0.0211</v>
+      </c>
+      <c r="V71">
+        <v>0.27</v>
+      </c>
+      <c r="W71">
+        <v>0.015403</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>7.00069214390253</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.05843783551163052</v>
+      </c>
+      <c r="C72">
+        <v>30.93598588213219</v>
+      </c>
+      <c r="D72">
+        <v>70.99598588213219</v>
+      </c>
+      <c r="E72">
+        <v>16.46</v>
+      </c>
+      <c r="F72">
+        <v>50.96</v>
+      </c>
+      <c r="G72">
+        <v>10.9</v>
+      </c>
+      <c r="H72">
+        <v>38.3</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>10.4</v>
+      </c>
+      <c r="K72">
+        <v>2.98</v>
+      </c>
+      <c r="L72">
+        <v>7.42</v>
+      </c>
+      <c r="M72">
+        <v>1.075256</v>
+      </c>
+      <c r="N72">
+        <v>6.344744</v>
+      </c>
+      <c r="O72">
+        <v>1.71308088</v>
+      </c>
+      <c r="P72">
+        <v>4.631663120000001</v>
+      </c>
+      <c r="Q72">
+        <v>7.611663120000001</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1588524517054351</v>
+      </c>
+      <c r="T72">
+        <v>2.768716821055578</v>
+      </c>
+      <c r="U72">
+        <v>0.0211</v>
+      </c>
+      <c r="V72">
+        <v>0.27</v>
+      </c>
+      <c r="W72">
+        <v>0.015403</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>6.900682256132494</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.05834949746492102</v>
+      </c>
+      <c r="C73">
+        <v>30.33584951053184</v>
+      </c>
+      <c r="D73">
+        <v>71.12384951053183</v>
+      </c>
+      <c r="E73">
+        <v>17.188</v>
+      </c>
+      <c r="F73">
+        <v>51.688</v>
+      </c>
+      <c r="G73">
+        <v>10.9</v>
+      </c>
+      <c r="H73">
+        <v>38.3</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>10.4</v>
+      </c>
+      <c r="K73">
+        <v>2.98</v>
+      </c>
+      <c r="L73">
+        <v>7.42</v>
+      </c>
+      <c r="M73">
+        <v>1.0906168</v>
+      </c>
+      <c r="N73">
+        <v>6.329383200000001</v>
+      </c>
+      <c r="O73">
+        <v>1.708933464</v>
+      </c>
+      <c r="P73">
+        <v>4.620449736</v>
+      </c>
+      <c r="Q73">
+        <v>7.600449736000001</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1634943705686931</v>
+      </c>
+      <c r="T73">
+        <v>2.854654287757842</v>
+      </c>
+      <c r="U73">
+        <v>0.0211</v>
+      </c>
+      <c r="V73">
+        <v>0.27</v>
+      </c>
+      <c r="W73">
+        <v>0.015403</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>6.803489548299643</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.05826115941821151</v>
+      </c>
+      <c r="C74">
+        <v>29.73617453418076</v>
+      </c>
+      <c r="D74">
+        <v>71.25217453418075</v>
+      </c>
+      <c r="E74">
+        <v>17.916</v>
+      </c>
+      <c r="F74">
+        <v>52.416</v>
+      </c>
+      <c r="G74">
+        <v>10.9</v>
+      </c>
+      <c r="H74">
+        <v>38.3</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>10.4</v>
+      </c>
+      <c r="K74">
+        <v>2.98</v>
+      </c>
+      <c r="L74">
+        <v>7.42</v>
+      </c>
+      <c r="M74">
+        <v>1.1059776</v>
+      </c>
+      <c r="N74">
+        <v>6.3140224</v>
+      </c>
+      <c r="O74">
+        <v>1.704786048</v>
+      </c>
+      <c r="P74">
+        <v>4.609236352</v>
+      </c>
+      <c r="Q74">
+        <v>7.589236352</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1684678550650411</v>
+      </c>
+      <c r="T74">
+        <v>2.946730144938841</v>
+      </c>
+      <c r="U74">
+        <v>0.0211</v>
+      </c>
+      <c r="V74">
+        <v>0.27</v>
+      </c>
+      <c r="W74">
+        <v>0.015403</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>6.708996637906591</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.05817282137150202</v>
+      </c>
+      <c r="C75">
+        <v>29.13696345500667</v>
+      </c>
+      <c r="D75">
+        <v>71.38096345500666</v>
+      </c>
+      <c r="E75">
+        <v>18.644</v>
+      </c>
+      <c r="F75">
+        <v>53.144</v>
+      </c>
+      <c r="G75">
+        <v>10.9</v>
+      </c>
+      <c r="H75">
+        <v>38.3</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>10.4</v>
+      </c>
+      <c r="K75">
+        <v>2.98</v>
+      </c>
+      <c r="L75">
+        <v>7.42</v>
+      </c>
+      <c r="M75">
+        <v>1.1213384</v>
+      </c>
+      <c r="N75">
+        <v>6.2986616</v>
+      </c>
+      <c r="O75">
+        <v>1.700638632</v>
+      </c>
+      <c r="P75">
+        <v>4.598022968</v>
+      </c>
+      <c r="Q75">
+        <v>7.578022968</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1738097458203778</v>
+      </c>
+      <c r="T75">
+        <v>3.045626435985098</v>
+      </c>
+      <c r="U75">
+        <v>0.0211</v>
+      </c>
+      <c r="V75">
+        <v>0.27</v>
+      </c>
+      <c r="W75">
+        <v>0.015403</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>6.617092574373624</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.05808448332479252</v>
+      </c>
+      <c r="C76">
+        <v>28.53821879305907</v>
+      </c>
+      <c r="D76">
+        <v>71.51021879305907</v>
+      </c>
+      <c r="E76">
+        <v>19.372</v>
+      </c>
+      <c r="F76">
+        <v>53.872</v>
+      </c>
+      <c r="G76">
+        <v>10.9</v>
+      </c>
+      <c r="H76">
+        <v>38.3</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>10.4</v>
+      </c>
+      <c r="K76">
+        <v>2.98</v>
+      </c>
+      <c r="L76">
+        <v>7.42</v>
+      </c>
+      <c r="M76">
+        <v>1.1366992</v>
+      </c>
+      <c r="N76">
+        <v>6.2833008</v>
+      </c>
+      <c r="O76">
+        <v>1.696491216</v>
+      </c>
+      <c r="P76">
+        <v>4.586809584</v>
+      </c>
+      <c r="Q76">
+        <v>7.566809584</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.179562551249202</v>
+      </c>
+      <c r="T76">
+        <v>3.152130134034913</v>
+      </c>
+      <c r="U76">
+        <v>0.0211</v>
+      </c>
+      <c r="V76">
+        <v>0.27</v>
+      </c>
+      <c r="W76">
+        <v>0.015403</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>6.527672404449656</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.05799614527808302</v>
+      </c>
+      <c r="C77">
+        <v>27.93994308667357</v>
+      </c>
+      <c r="D77">
+        <v>71.63994308667355</v>
+      </c>
+      <c r="E77">
+        <v>20.09999999999999</v>
+      </c>
+      <c r="F77">
+        <v>54.59999999999999</v>
+      </c>
+      <c r="G77">
+        <v>10.9</v>
+      </c>
+      <c r="H77">
+        <v>38.3</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>10.4</v>
+      </c>
+      <c r="K77">
+        <v>2.98</v>
+      </c>
+      <c r="L77">
+        <v>7.42</v>
+      </c>
+      <c r="M77">
+        <v>1.15206</v>
+      </c>
+      <c r="N77">
+        <v>6.26794</v>
+      </c>
+      <c r="O77">
+        <v>1.6923438</v>
+      </c>
+      <c r="P77">
+        <v>4.5755962</v>
+      </c>
+      <c r="Q77">
+        <v>7.5555962</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1857755811123321</v>
+      </c>
+      <c r="T77">
+        <v>3.267154127928714</v>
+      </c>
+      <c r="U77">
+        <v>0.0211</v>
+      </c>
+      <c r="V77">
+        <v>0.27</v>
+      </c>
+      <c r="W77">
+        <v>0.015403</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>6.440636772390328</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.05874000723137352</v>
+      </c>
+      <c r="C78">
+        <v>26.13406646443358</v>
+      </c>
+      <c r="D78">
+        <v>70.56206646443357</v>
+      </c>
+      <c r="E78">
+        <v>20.828</v>
+      </c>
+      <c r="F78">
+        <v>55.328</v>
+      </c>
+      <c r="G78">
+        <v>10.9</v>
+      </c>
+      <c r="H78">
+        <v>38.3</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>10.4</v>
+      </c>
+      <c r="K78">
+        <v>2.98</v>
+      </c>
+      <c r="L78">
+        <v>7.42</v>
+      </c>
+      <c r="M78">
+        <v>1.2504128</v>
+      </c>
+      <c r="N78">
+        <v>6.1695872</v>
+      </c>
+      <c r="O78">
+        <v>1.665788544</v>
+      </c>
+      <c r="P78">
+        <v>4.503798656000001</v>
+      </c>
+      <c r="Q78">
+        <v>7.483798656000001</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1925063634640564</v>
+      </c>
+      <c r="T78">
+        <v>3.391763454646999</v>
+      </c>
+      <c r="U78">
+        <v>0.0226</v>
+      </c>
+      <c r="V78">
+        <v>0.27</v>
+      </c>
+      <c r="W78">
+        <v>0.016498</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>5.934040342517288</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.05866261918466403</v>
+      </c>
+      <c r="C79">
+        <v>25.51668985893053</v>
+      </c>
+      <c r="D79">
+        <v>70.67268985893053</v>
+      </c>
+      <c r="E79">
+        <v>21.556</v>
+      </c>
+      <c r="F79">
+        <v>56.056</v>
+      </c>
+      <c r="G79">
+        <v>10.9</v>
+      </c>
+      <c r="H79">
+        <v>38.3</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>10.4</v>
+      </c>
+      <c r="K79">
+        <v>2.98</v>
+      </c>
+      <c r="L79">
+        <v>7.42</v>
+      </c>
+      <c r="M79">
+        <v>1.2668656</v>
+      </c>
+      <c r="N79">
+        <v>6.1531344</v>
+      </c>
+      <c r="O79">
+        <v>1.661346288</v>
+      </c>
+      <c r="P79">
+        <v>4.491788112</v>
+      </c>
+      <c r="Q79">
+        <v>7.471788112</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1998224312376697</v>
+      </c>
+      <c r="T79">
+        <v>3.52720837499296</v>
+      </c>
+      <c r="U79">
+        <v>0.0226</v>
+      </c>
+      <c r="V79">
+        <v>0.27</v>
+      </c>
+      <c r="W79">
+        <v>0.016498</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>5.856974883523557</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.05858523113795452</v>
+      </c>
+      <c r="C80">
+        <v>24.89966065682696</v>
+      </c>
+      <c r="D80">
+        <v>70.78366065682695</v>
+      </c>
+      <c r="E80">
+        <v>22.284</v>
+      </c>
+      <c r="F80">
+        <v>56.784</v>
+      </c>
+      <c r="G80">
+        <v>10.9</v>
+      </c>
+      <c r="H80">
+        <v>38.3</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>10.4</v>
+      </c>
+      <c r="K80">
+        <v>2.98</v>
+      </c>
+      <c r="L80">
+        <v>7.42</v>
+      </c>
+      <c r="M80">
+        <v>1.2833184</v>
+      </c>
+      <c r="N80">
+        <v>6.1366816</v>
+      </c>
+      <c r="O80">
+        <v>1.656904032</v>
+      </c>
+      <c r="P80">
+        <v>4.479777568</v>
+      </c>
+      <c r="Q80">
+        <v>7.459777568000001</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2078035960816115</v>
+      </c>
+      <c r="T80">
+        <v>3.674966469915827</v>
+      </c>
+      <c r="U80">
+        <v>0.0226</v>
+      </c>
+      <c r="V80">
+        <v>0.27</v>
+      </c>
+      <c r="W80">
+        <v>0.016498</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>5.781885461939921</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.05850784309124503</v>
+      </c>
+      <c r="C81">
+        <v>24.28298049718295</v>
+      </c>
+      <c r="D81">
+        <v>70.89498049718294</v>
+      </c>
+      <c r="E81">
+        <v>23.012</v>
+      </c>
+      <c r="F81">
+        <v>57.512</v>
+      </c>
+      <c r="G81">
+        <v>10.9</v>
+      </c>
+      <c r="H81">
+        <v>38.3</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>10.4</v>
+      </c>
+      <c r="K81">
+        <v>2.98</v>
+      </c>
+      <c r="L81">
+        <v>7.42</v>
+      </c>
+      <c r="M81">
+        <v>1.2997712</v>
+      </c>
+      <c r="N81">
+        <v>6.1202288</v>
+      </c>
+      <c r="O81">
+        <v>1.652461776</v>
+      </c>
+      <c r="P81">
+        <v>4.467767024</v>
+      </c>
+      <c r="Q81">
+        <v>7.447767024</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2165448718630716</v>
+      </c>
+      <c r="T81">
+        <v>3.836796764355157</v>
+      </c>
+      <c r="U81">
+        <v>0.0226</v>
+      </c>
+      <c r="V81">
+        <v>0.27</v>
+      </c>
+      <c r="W81">
+        <v>0.016498</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>5.708697038371061</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.05843045504453553</v>
+      </c>
+      <c r="C82">
+        <v>23.66665102938567</v>
+      </c>
+      <c r="D82">
+        <v>71.00665102938567</v>
+      </c>
+      <c r="E82">
+        <v>23.74</v>
+      </c>
+      <c r="F82">
+        <v>58.24</v>
+      </c>
+      <c r="G82">
+        <v>10.9</v>
+      </c>
+      <c r="H82">
+        <v>38.3</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>10.4</v>
+      </c>
+      <c r="K82">
+        <v>2.98</v>
+      </c>
+      <c r="L82">
+        <v>7.42</v>
+      </c>
+      <c r="M82">
+        <v>1.316224</v>
+      </c>
+      <c r="N82">
+        <v>6.103776</v>
+      </c>
+      <c r="O82">
+        <v>1.64801952</v>
+      </c>
+      <c r="P82">
+        <v>4.45575648</v>
+      </c>
+      <c r="Q82">
+        <v>7.43575648</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2261602752226777</v>
+      </c>
+      <c r="T82">
+        <v>4.014810088238421</v>
+      </c>
+      <c r="U82">
+        <v>0.0226</v>
+      </c>
+      <c r="V82">
+        <v>0.27</v>
+      </c>
+      <c r="W82">
+        <v>0.016498</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>5.637338325391422</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.05835306699782603</v>
+      </c>
+      <c r="C83">
+        <v>23.05067391323084</v>
+      </c>
+      <c r="D83">
+        <v>71.11867391323084</v>
+      </c>
+      <c r="E83">
+        <v>24.468</v>
+      </c>
+      <c r="F83">
+        <v>58.968</v>
+      </c>
+      <c r="G83">
+        <v>10.9</v>
+      </c>
+      <c r="H83">
+        <v>38.3</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>10.4</v>
+      </c>
+      <c r="K83">
+        <v>2.98</v>
+      </c>
+      <c r="L83">
+        <v>7.42</v>
+      </c>
+      <c r="M83">
+        <v>1.3326768</v>
+      </c>
+      <c r="N83">
+        <v>6.0873232</v>
+      </c>
+      <c r="O83">
+        <v>1.643577264</v>
+      </c>
+      <c r="P83">
+        <v>4.443745936</v>
+      </c>
+      <c r="Q83">
+        <v>7.423745936</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2367878263043476</v>
+      </c>
+      <c r="T83">
+        <v>4.211561656740975</v>
+      </c>
+      <c r="U83">
+        <v>0.0226</v>
+      </c>
+      <c r="V83">
+        <v>0.27</v>
+      </c>
+      <c r="W83">
+        <v>0.016498</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>5.567741555942146</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.05827567895111653</v>
+      </c>
+      <c r="C84">
+        <v>22.43505081900499</v>
+      </c>
+      <c r="D84">
+        <v>71.23105081900499</v>
+      </c>
+      <c r="E84">
+        <v>25.19600000000001</v>
+      </c>
+      <c r="F84">
+        <v>59.69600000000001</v>
+      </c>
+      <c r="G84">
+        <v>10.9</v>
+      </c>
+      <c r="H84">
+        <v>38.3</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>10.4</v>
+      </c>
+      <c r="K84">
+        <v>2.98</v>
+      </c>
+      <c r="L84">
+        <v>7.42</v>
+      </c>
+      <c r="M84">
+        <v>1.3491296</v>
+      </c>
+      <c r="N84">
+        <v>6.0708704</v>
+      </c>
+      <c r="O84">
+        <v>1.639135008</v>
+      </c>
+      <c r="P84">
+        <v>4.431735392</v>
+      </c>
+      <c r="Q84">
+        <v>7.411735392000001</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2485962163950919</v>
+      </c>
+      <c r="T84">
+        <v>4.430174510632702</v>
+      </c>
+      <c r="U84">
+        <v>0.0226</v>
+      </c>
+      <c r="V84">
+        <v>0.27</v>
+      </c>
+      <c r="W84">
+        <v>0.016498</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>5.499842268674559</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.05819829090440704</v>
+      </c>
+      <c r="C85">
+        <v>21.81978342756842</v>
+      </c>
+      <c r="D85">
+        <v>71.34378342756841</v>
+      </c>
+      <c r="E85">
+        <v>25.924</v>
+      </c>
+      <c r="F85">
+        <v>60.424</v>
+      </c>
+      <c r="G85">
+        <v>10.9</v>
+      </c>
+      <c r="H85">
+        <v>38.3</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>10.4</v>
+      </c>
+      <c r="K85">
+        <v>2.98</v>
+      </c>
+      <c r="L85">
+        <v>7.42</v>
+      </c>
+      <c r="M85">
+        <v>1.3655824</v>
+      </c>
+      <c r="N85">
+        <v>6.0544176</v>
+      </c>
+      <c r="O85">
+        <v>1.634692752</v>
+      </c>
+      <c r="P85">
+        <v>4.419724848</v>
+      </c>
+      <c r="Q85">
+        <v>7.399724848</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2617938288494533</v>
+      </c>
+      <c r="T85">
+        <v>4.67450652380581</v>
+      </c>
+      <c r="U85">
+        <v>0.0226</v>
+      </c>
+      <c r="V85">
+        <v>0.27</v>
+      </c>
+      <c r="W85">
+        <v>0.016498</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>5.43357910881101</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.05812090285769754</v>
+      </c>
+      <c r="C86">
+        <v>21.20487343043909</v>
+      </c>
+      <c r="D86">
+        <v>71.45687343043907</v>
+      </c>
+      <c r="E86">
+        <v>26.65199999999999</v>
+      </c>
+      <c r="F86">
+        <v>61.15199999999999</v>
+      </c>
+      <c r="G86">
+        <v>10.9</v>
+      </c>
+      <c r="H86">
+        <v>38.3</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>10.4</v>
+      </c>
+      <c r="K86">
+        <v>2.98</v>
+      </c>
+      <c r="L86">
+        <v>7.42</v>
+      </c>
+      <c r="M86">
+        <v>1.3820352</v>
+      </c>
+      <c r="N86">
+        <v>6.0379648</v>
+      </c>
+      <c r="O86">
+        <v>1.630250496</v>
+      </c>
+      <c r="P86">
+        <v>4.407714304</v>
+      </c>
+      <c r="Q86">
+        <v>7.387714304</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2766411428606096</v>
+      </c>
+      <c r="T86">
+        <v>4.949380038625552</v>
+      </c>
+      <c r="U86">
+        <v>0.0226</v>
+      </c>
+      <c r="V86">
+        <v>0.27</v>
+      </c>
+      <c r="W86">
+        <v>0.016498</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>5.368893643229927</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.05804351481098804</v>
+      </c>
+      <c r="C87">
+        <v>20.59032252987708</v>
+      </c>
+      <c r="D87">
+        <v>71.57032252987707</v>
+      </c>
+      <c r="E87">
+        <v>27.38</v>
+      </c>
+      <c r="F87">
+        <v>61.88</v>
+      </c>
+      <c r="G87">
+        <v>10.9</v>
+      </c>
+      <c r="H87">
+        <v>38.3</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>10.4</v>
+      </c>
+      <c r="K87">
+        <v>2.98</v>
+      </c>
+      <c r="L87">
+        <v>7.42</v>
+      </c>
+      <c r="M87">
+        <v>1.398488</v>
+      </c>
+      <c r="N87">
+        <v>6.021512</v>
+      </c>
+      <c r="O87">
+        <v>1.62580824</v>
+      </c>
+      <c r="P87">
+        <v>4.39570376</v>
+      </c>
+      <c r="Q87">
+        <v>7.37570376</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.2934680987399202</v>
+      </c>
+      <c r="T87">
+        <v>5.260903355421263</v>
+      </c>
+      <c r="U87">
+        <v>0.0226</v>
+      </c>
+      <c r="V87">
+        <v>0.27</v>
+      </c>
+      <c r="W87">
+        <v>0.016498</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>5.305730188603693</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.05796612676427854</v>
+      </c>
+      <c r="C88">
+        <v>19.97613243897019</v>
+      </c>
+      <c r="D88">
+        <v>71.68413243897018</v>
+      </c>
+      <c r="E88">
+        <v>28.108</v>
+      </c>
+      <c r="F88">
+        <v>62.608</v>
+      </c>
+      <c r="G88">
+        <v>10.9</v>
+      </c>
+      <c r="H88">
+        <v>38.3</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>10.4</v>
+      </c>
+      <c r="K88">
+        <v>2.98</v>
+      </c>
+      <c r="L88">
+        <v>7.42</v>
+      </c>
+      <c r="M88">
+        <v>1.4149408</v>
+      </c>
+      <c r="N88">
+        <v>6.0050592</v>
+      </c>
+      <c r="O88">
+        <v>1.621365984</v>
+      </c>
+      <c r="P88">
+        <v>4.383693215999999</v>
+      </c>
+      <c r="Q88">
+        <v>7.363693216</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3126989054591324</v>
+      </c>
+      <c r="T88">
+        <v>5.61693000318779</v>
+      </c>
+      <c r="U88">
+        <v>0.0226</v>
+      </c>
+      <c r="V88">
+        <v>0.27</v>
+      </c>
+      <c r="W88">
+        <v>0.016498</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>5.244035651526905</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.05788873871756904</v>
+      </c>
+      <c r="C89">
+        <v>19.36230488172001</v>
+      </c>
+      <c r="D89">
+        <v>71.79830488172</v>
+      </c>
+      <c r="E89">
+        <v>28.836</v>
+      </c>
+      <c r="F89">
+        <v>63.336</v>
+      </c>
+      <c r="G89">
+        <v>10.9</v>
+      </c>
+      <c r="H89">
+        <v>38.3</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>10.4</v>
+      </c>
+      <c r="K89">
+        <v>2.98</v>
+      </c>
+      <c r="L89">
+        <v>7.42</v>
+      </c>
+      <c r="M89">
+        <v>1.4313936</v>
+      </c>
+      <c r="N89">
+        <v>5.9886064</v>
+      </c>
+      <c r="O89">
+        <v>1.616923728</v>
+      </c>
+      <c r="P89">
+        <v>4.371682672</v>
+      </c>
+      <c r="Q89">
+        <v>7.351682672000001</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3348882978274542</v>
+      </c>
+      <c r="T89">
+        <v>6.027729981379935</v>
+      </c>
+      <c r="U89">
+        <v>0.0226</v>
+      </c>
+      <c r="V89">
+        <v>0.27</v>
+      </c>
+      <c r="W89">
+        <v>0.016498</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>5.183759379670274</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.05781135067085956</v>
+      </c>
+      <c r="C90">
+        <v>18.74884159312899</v>
+      </c>
+      <c r="D90">
+        <v>71.91284159312897</v>
+      </c>
+      <c r="E90">
+        <v>29.56399999999999</v>
+      </c>
+      <c r="F90">
+        <v>64.06399999999999</v>
+      </c>
+      <c r="G90">
+        <v>10.9</v>
+      </c>
+      <c r="H90">
+        <v>38.3</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>10.4</v>
+      </c>
+      <c r="K90">
+        <v>2.98</v>
+      </c>
+      <c r="L90">
+        <v>7.42</v>
+      </c>
+      <c r="M90">
+        <v>1.4478464</v>
+      </c>
+      <c r="N90">
+        <v>5.9721536</v>
+      </c>
+      <c r="O90">
+        <v>1.612481472</v>
+      </c>
+      <c r="P90">
+        <v>4.359672128</v>
+      </c>
+      <c r="Q90">
+        <v>7.339672128</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.360775922257163</v>
+      </c>
+      <c r="T90">
+        <v>6.506996622604107</v>
+      </c>
+      <c r="U90">
+        <v>0.0226</v>
+      </c>
+      <c r="V90">
+        <v>0.27</v>
+      </c>
+      <c r="W90">
+        <v>0.016498</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>5.124853023083112</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.05773396262415005</v>
+      </c>
+      <c r="C91">
+        <v>18.13574431928849</v>
+      </c>
+      <c r="D91">
+        <v>72.02774431928849</v>
+      </c>
+      <c r="E91">
+        <v>30.292</v>
+      </c>
+      <c r="F91">
+        <v>64.792</v>
+      </c>
+      <c r="G91">
+        <v>10.9</v>
+      </c>
+      <c r="H91">
+        <v>38.3</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>10.4</v>
+      </c>
+      <c r="K91">
+        <v>2.98</v>
+      </c>
+      <c r="L91">
+        <v>7.42</v>
+      </c>
+      <c r="M91">
+        <v>1.4642992</v>
+      </c>
+      <c r="N91">
+        <v>5.9557008</v>
+      </c>
+      <c r="O91">
+        <v>1.608039216</v>
+      </c>
+      <c r="P91">
+        <v>4.347661584</v>
+      </c>
+      <c r="Q91">
+        <v>7.327661584</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.3913703874922733</v>
+      </c>
+      <c r="T91">
+        <v>7.073402653141764</v>
+      </c>
+      <c r="U91">
+        <v>0.0226</v>
+      </c>
+      <c r="V91">
+        <v>0.27</v>
+      </c>
+      <c r="W91">
+        <v>0.016498</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>5.067270404846223</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.05765657457744056</v>
+      </c>
+      <c r="C92">
+        <v>17.52301481746727</v>
+      </c>
+      <c r="D92">
+        <v>72.14301481746726</v>
+      </c>
+      <c r="E92">
+        <v>31.02</v>
+      </c>
+      <c r="F92">
+        <v>65.52</v>
+      </c>
+      <c r="G92">
+        <v>10.9</v>
+      </c>
+      <c r="H92">
+        <v>38.3</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>10.4</v>
+      </c>
+      <c r="K92">
+        <v>2.98</v>
+      </c>
+      <c r="L92">
+        <v>7.42</v>
+      </c>
+      <c r="M92">
+        <v>1.480752</v>
+      </c>
+      <c r="N92">
+        <v>5.939248</v>
+      </c>
+      <c r="O92">
+        <v>1.60359696</v>
+      </c>
+      <c r="P92">
+        <v>4.33565104</v>
+      </c>
+      <c r="Q92">
+        <v>7.315651040000001</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4280837457744057</v>
+      </c>
+      <c r="T92">
+        <v>7.753089889786951</v>
+      </c>
+      <c r="U92">
+        <v>0.0226</v>
+      </c>
+      <c r="V92">
+        <v>0.27</v>
+      </c>
+      <c r="W92">
+        <v>0.016498</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>5.010967400347932</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.05757918653073106</v>
+      </c>
+      <c r="C93">
+        <v>16.91065485620122</v>
+      </c>
+      <c r="D93">
+        <v>72.25865485620122</v>
+      </c>
+      <c r="E93">
+        <v>31.748</v>
+      </c>
+      <c r="F93">
+        <v>66.248</v>
+      </c>
+      <c r="G93">
+        <v>10.9</v>
+      </c>
+      <c r="H93">
+        <v>38.3</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>10.4</v>
+      </c>
+      <c r="K93">
+        <v>2.98</v>
+      </c>
+      <c r="L93">
+        <v>7.42</v>
+      </c>
+      <c r="M93">
+        <v>1.4972048</v>
+      </c>
+      <c r="N93">
+        <v>5.922795199999999</v>
+      </c>
+      <c r="O93">
+        <v>1.599154704</v>
+      </c>
+      <c r="P93">
+        <v>4.323640495999999</v>
+      </c>
+      <c r="Q93">
+        <v>7.303640496</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.4729556281192341</v>
+      </c>
+      <c r="T93">
+        <v>8.583818734575514</v>
+      </c>
+      <c r="U93">
+        <v>0.0226</v>
+      </c>
+      <c r="V93">
+        <v>0.27</v>
+      </c>
+      <c r="W93">
+        <v>0.016498</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>4.955901824519932</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.05750179848402157</v>
+      </c>
+      <c r="C94">
+        <v>16.29866621538383</v>
+      </c>
+      <c r="D94">
+        <v>72.37466621538383</v>
+      </c>
+      <c r="E94">
+        <v>32.476</v>
+      </c>
+      <c r="F94">
+        <v>66.976</v>
+      </c>
+      <c r="G94">
+        <v>10.9</v>
+      </c>
+      <c r="H94">
+        <v>38.3</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>10.4</v>
+      </c>
+      <c r="K94">
+        <v>2.98</v>
+      </c>
+      <c r="L94">
+        <v>7.42</v>
+      </c>
+      <c r="M94">
+        <v>1.5136576</v>
+      </c>
+      <c r="N94">
+        <v>5.9063424</v>
+      </c>
+      <c r="O94">
+        <v>1.594712448</v>
+      </c>
+      <c r="P94">
+        <v>4.311629952</v>
+      </c>
+      <c r="Q94">
+        <v>7.291629952</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.5290454810502698</v>
+      </c>
+      <c r="T94">
+        <v>9.622229790561219</v>
+      </c>
+      <c r="U94">
+        <v>0.0226</v>
+      </c>
+      <c r="V94">
+        <v>0.27</v>
+      </c>
+      <c r="W94">
+        <v>0.016498</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>4.902033326427324</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.05742441043731206</v>
+      </c>
+      <c r="C95">
+        <v>15.68705068635737</v>
+      </c>
+      <c r="D95">
+        <v>72.49105068635737</v>
+      </c>
+      <c r="E95">
+        <v>33.20400000000001</v>
+      </c>
+      <c r="F95">
+        <v>67.70400000000001</v>
+      </c>
+      <c r="G95">
+        <v>10.9</v>
+      </c>
+      <c r="H95">
+        <v>38.3</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>10.4</v>
+      </c>
+      <c r="K95">
+        <v>2.98</v>
+      </c>
+      <c r="L95">
+        <v>7.42</v>
+      </c>
+      <c r="M95">
+        <v>1.5301104</v>
+      </c>
+      <c r="N95">
+        <v>5.8898896</v>
+      </c>
+      <c r="O95">
+        <v>1.590270192</v>
+      </c>
+      <c r="P95">
+        <v>4.299619408</v>
+      </c>
+      <c r="Q95">
+        <v>7.279619408</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.6011610062473156</v>
+      </c>
+      <c r="T95">
+        <v>10.9573297196857</v>
+      </c>
+      <c r="U95">
+        <v>0.0226</v>
+      </c>
+      <c r="V95">
+        <v>0.27</v>
+      </c>
+      <c r="W95">
+        <v>0.016498</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>4.849323290659289</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.05734702239060257</v>
+      </c>
+      <c r="C96">
+        <v>15.07581007200525</v>
+      </c>
+      <c r="D96">
+        <v>72.60781007200525</v>
+      </c>
+      <c r="E96">
+        <v>33.932</v>
+      </c>
+      <c r="F96">
+        <v>68.432</v>
+      </c>
+      <c r="G96">
+        <v>10.9</v>
+      </c>
+      <c r="H96">
+        <v>38.3</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>10.4</v>
+      </c>
+      <c r="K96">
+        <v>2.98</v>
+      </c>
+      <c r="L96">
+        <v>7.42</v>
+      </c>
+      <c r="M96">
+        <v>1.5465632</v>
+      </c>
+      <c r="N96">
+        <v>5.8734368</v>
+      </c>
+      <c r="O96">
+        <v>1.585827936</v>
+      </c>
+      <c r="P96">
+        <v>4.287608864</v>
+      </c>
+      <c r="Q96">
+        <v>7.267608864000001</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.6973150398433768</v>
+      </c>
+      <c r="T96">
+        <v>12.73746295851833</v>
+      </c>
+      <c r="U96">
+        <v>0.0226</v>
+      </c>
+      <c r="V96">
+        <v>0.27</v>
+      </c>
+      <c r="W96">
+        <v>0.016498</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>4.797734745013977</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.05726963434389307</v>
+      </c>
+      <c r="C97">
+        <v>14.464946186845</v>
+      </c>
+      <c r="D97">
+        <v>72.72494618684499</v>
+      </c>
+      <c r="E97">
+        <v>34.66</v>
+      </c>
+      <c r="F97">
+        <v>69.16</v>
+      </c>
+      <c r="G97">
+        <v>10.9</v>
+      </c>
+      <c r="H97">
+        <v>38.3</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>10.4</v>
+      </c>
+      <c r="K97">
+        <v>2.98</v>
+      </c>
+      <c r="L97">
+        <v>7.42</v>
+      </c>
+      <c r="M97">
+        <v>1.563016</v>
+      </c>
+      <c r="N97">
+        <v>5.856984000000001</v>
+      </c>
+      <c r="O97">
+        <v>1.58138568</v>
+      </c>
+      <c r="P97">
+        <v>4.27559832</v>
+      </c>
+      <c r="Q97">
+        <v>7.255598320000001</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.8319306868778625</v>
+      </c>
+      <c r="T97">
+        <v>15.22964949288403</v>
+      </c>
+      <c r="U97">
+        <v>0.0226</v>
+      </c>
+      <c r="V97">
+        <v>0.27</v>
+      </c>
+      <c r="W97">
+        <v>0.016498</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>4.747232274013831</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.05719224629718359</v>
+      </c>
+      <c r="C98">
+        <v>13.85446085712229</v>
+      </c>
+      <c r="D98">
+        <v>72.84246085712228</v>
+      </c>
+      <c r="E98">
+        <v>35.38799999999999</v>
+      </c>
+      <c r="F98">
+        <v>69.88799999999999</v>
+      </c>
+      <c r="G98">
+        <v>10.9</v>
+      </c>
+      <c r="H98">
+        <v>38.3</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>10.4</v>
+      </c>
+      <c r="K98">
+        <v>2.98</v>
+      </c>
+      <c r="L98">
+        <v>7.42</v>
+      </c>
+      <c r="M98">
+        <v>1.5794688</v>
+      </c>
+      <c r="N98">
+        <v>5.8405312</v>
+      </c>
+      <c r="O98">
+        <v>1.576943424</v>
+      </c>
+      <c r="P98">
+        <v>4.263587776</v>
+      </c>
+      <c r="Q98">
+        <v>7.243587776</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.033854157429589</v>
+      </c>
+      <c r="T98">
+        <v>18.96792929443252</v>
+      </c>
+      <c r="U98">
+        <v>0.0226</v>
+      </c>
+      <c r="V98">
+        <v>0.27</v>
+      </c>
+      <c r="W98">
+        <v>0.016498</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>4.697781937826186</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.05711485825047408</v>
+      </c>
+      <c r="C99">
+        <v>13.24435592090593</v>
+      </c>
+      <c r="D99">
+        <v>72.96035592090593</v>
+      </c>
+      <c r="E99">
+        <v>36.116</v>
+      </c>
+      <c r="F99">
+        <v>70.616</v>
+      </c>
+      <c r="G99">
+        <v>10.9</v>
+      </c>
+      <c r="H99">
+        <v>38.3</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>10.4</v>
+      </c>
+      <c r="K99">
+        <v>2.98</v>
+      </c>
+      <c r="L99">
+        <v>7.42</v>
+      </c>
+      <c r="M99">
+        <v>1.5959216</v>
+      </c>
+      <c r="N99">
+        <v>5.8240784</v>
+      </c>
+      <c r="O99">
+        <v>1.572501168</v>
+      </c>
+      <c r="P99">
+        <v>4.251577232</v>
+      </c>
+      <c r="Q99">
+        <v>7.231577232</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.370393275015802</v>
+      </c>
+      <c r="T99">
+        <v>25.19839563034673</v>
+      </c>
+      <c r="U99">
+        <v>0.0226</v>
+      </c>
+      <c r="V99">
+        <v>0.27</v>
+      </c>
+      <c r="W99">
+        <v>0.016498</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>4.649351196199112</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.05703747020376458</v>
+      </c>
+      <c r="C100">
+        <v>12.6346332281836</v>
+      </c>
+      <c r="D100">
+        <v>73.07863322818359</v>
+      </c>
+      <c r="E100">
+        <v>36.84399999999999</v>
+      </c>
+      <c r="F100">
+        <v>71.34399999999999</v>
+      </c>
+      <c r="G100">
+        <v>10.9</v>
+      </c>
+      <c r="H100">
+        <v>38.3</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>10.4</v>
+      </c>
+      <c r="K100">
+        <v>2.98</v>
+      </c>
+      <c r="L100">
+        <v>7.42</v>
+      </c>
+      <c r="M100">
+        <v>1.6123744</v>
+      </c>
+      <c r="N100">
+        <v>5.8076256</v>
+      </c>
+      <c r="O100">
+        <v>1.568058912</v>
+      </c>
+      <c r="P100">
+        <v>4.239566688</v>
+      </c>
+      <c r="Q100">
+        <v>7.219566688</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.043471510188227</v>
+      </c>
+      <c r="T100">
+        <v>37.65932830217515</v>
+      </c>
+      <c r="U100">
+        <v>0.0226</v>
+      </c>
+      <c r="V100">
+        <v>0.27</v>
+      </c>
+      <c r="W100">
+        <v>0.016498</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>4.601908837054223</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.05696008215705509</v>
+      </c>
+      <c r="C101">
+        <v>12.02529464095861</v>
+      </c>
+      <c r="D101">
+        <v>73.1972946409586</v>
+      </c>
+      <c r="E101">
+        <v>37.572</v>
+      </c>
+      <c r="F101">
+        <v>72.072</v>
+      </c>
+      <c r="G101">
+        <v>10.9</v>
+      </c>
+      <c r="H101">
+        <v>38.3</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>10.4</v>
+      </c>
+      <c r="K101">
+        <v>2.98</v>
+      </c>
+      <c r="L101">
+        <v>7.42</v>
+      </c>
+      <c r="M101">
+        <v>1.6288272</v>
+      </c>
+      <c r="N101">
+        <v>5.7911728</v>
+      </c>
+      <c r="O101">
+        <v>1.563616656</v>
+      </c>
+      <c r="P101">
+        <v>4.227556143999999</v>
+      </c>
+      <c r="Q101">
+        <v>7.207556144</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.062706215705505</v>
+      </c>
+      <c r="T101">
+        <v>75.04212631766042</v>
+      </c>
+      <c r="U101">
+        <v>0.0226</v>
+      </c>
+      <c r="V101">
+        <v>0.27</v>
+      </c>
+      <c r="W101">
+        <v>0.016498</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>4.55542490940721</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
